--- a/Assets/Haegin/Text/Editor/TextTable.xlsx
+++ b/Assets/Haegin/Text/Editor/TextTable.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CRJCC\Assets\Haegin\Text\Editor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF4861-0ED6-44FD-8B1C-531AC4E280A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,72 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="405">
-  <si>
-    <t xml:space="preserve">Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChineseTraditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChineseSimplified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャンセル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCELAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACEPTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确认</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DownloadAssetTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK WI-FI CONNECTION</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="410">
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>ChineseTraditional</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>CANCELAR</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>ACEPTAR</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>DownloadAssetTitle</t>
+  </si>
+  <si>
+    <t>CHECK WI-FI CONNECTION</t>
   </si>
   <si>
     <r>
@@ -106,93 +111,93 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">연결 확인</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Wi-Fi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">接続確認</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">確認連線</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WIFI</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPROBAR CONEXIÓN WIFI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">查看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WiFi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">连接</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">DownloadAssetMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New data needs to be downloaded to play the game.
+      <t>연결 확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Wi-Fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>接続確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>確認連線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>WIFI</t>
+    </r>
+  </si>
+  <si>
+    <t>COMPROBAR CONEXIÓN WIFI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>WiFi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+  </si>
+  <si>
+    <t>DownloadAssetMessage</t>
+  </si>
+  <si>
+    <t>New data needs to be downloaded to play the game.
 A &lt;color=#FF8080FF&gt;Wi-Fi connection is recommended.&lt;/color&gt;
 (File size: {0}MB)</t>
   </si>
@@ -205,7 +210,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">게임 진행을 위해 새로운 데이터를 다운로드합니다</t>
+      <t>게임 진행을 위해 새로운 데이터를 다운로드합니다</t>
     </r>
     <r>
       <rPr>
@@ -226,17 +231,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">연결을 하시는 것이 좋습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/color&gt;
+      <t>연결을 하시는 것이 좋습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;
 (</t>
     </r>
     <r>
@@ -257,7 +262,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: {0} MB)</t>
+      <t>: {0} MB)</t>
     </r>
   </si>
   <si>
@@ -280,27 +285,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;color=#FF8080FF&gt;Wi-Fi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">接続を推奨します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/color&gt;
+      <t>&lt;color=#FF8080FF&gt;Wi-Fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>接続を推奨します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;
 (</t>
     </r>
     <r>
@@ -311,17 +316,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ファイル容量：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{0}MB)</t>
+      <t>ファイル容量：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}MB)</t>
     </r>
   </si>
   <si>
@@ -344,17 +349,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">建議連線</t>
+      <t>&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>建議連線</t>
     </r>
     <r>
       <rPr>
@@ -375,31 +380,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">（文件大小：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{0}MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Se necesitan descargar datos adicionales para poder jugar.
+      <t>（文件大小：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>Se necesitan descargar datos adicionales para poder jugar.
 &lt;color=#FF8080FF&gt;Se recomienda conexión wifi.&lt;/color&gt;
 (Tamaño del archivo: {0} MB)</t>
   </si>
@@ -423,17 +428,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">建议连接</t>
+      <t>&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>建议连接</t>
     </r>
     <r>
       <rPr>
@@ -454,405 +459,405 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">（文件大小：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{0}MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">EULATtitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms of Service and Privacy Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이용 약관 및 개인정보 취급방침</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利用規約およびプライバシーポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用條款及個人隱私條款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condiciones del servicio y Política de privacidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用条款及个人信息保护法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EULA1Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Required) Mobile Service Terms of Use (Ads opt-in…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">모바일 서비스 이용 약관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">광고 수신…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">必須</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">サービス利用規約</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">（必須）服務使用條款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condiciones del servicio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">（必须）手机服务使用条款（接收广告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">...</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">EULA2Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Required) Collection and Usage of Personal Information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">개인정보 수집 및 이용동의</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">必須</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">プライバシーポリシー</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">（必須）個人隱私條款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Política de privacidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（必须）同意收集及使用个人信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EULA3Title</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">必須</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">夜間通知同意</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">（必須）同意夜間接收</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aviso de versión nocturna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EULAAgreeAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPT TO ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모두 동의하기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">すべて同意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全部同意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACEPTAR TODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EULAAgree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동의하기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoNotShowToday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t show again today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘 다시 보지 않기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日は表示しない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日不再查看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No volver a mostrar hoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日不再观看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLinkMsg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The new account has previous game data linked. Do you want to load the old data?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">새로 로그인한 계정에 연동된 이전 게임 데이터가 있습니다</t>
+      <t>（文件大小：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>EULATtitle</t>
+  </si>
+  <si>
+    <t>Terms of Service and Privacy Policy</t>
+  </si>
+  <si>
+    <t>이용 약관 및 개인정보 취급방침</t>
+  </si>
+  <si>
+    <t>利用規約およびプライバシーポリシー</t>
+  </si>
+  <si>
+    <t>使用條款及個人隱私條款</t>
+  </si>
+  <si>
+    <t>Condiciones del servicio y Política de privacidad</t>
+  </si>
+  <si>
+    <t>使用条款及个人信息保护法</t>
+  </si>
+  <si>
+    <t>EULA1Title</t>
+  </si>
+  <si>
+    <t>(Required) Mobile Service Terms of Use (Ads opt-in…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>모바일 서비스 이용 약관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>광고 수신…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>サービス利用規約</t>
+    </r>
+  </si>
+  <si>
+    <t>（必須）服務使用條款</t>
+  </si>
+  <si>
+    <t>Condiciones del servicio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>（必须）手机服务使用条款（接收广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>EULA2Title</t>
+  </si>
+  <si>
+    <t>(Required) Collection and Usage of Personal Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>개인정보 수집 및 이용동의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>プライバシーポリシー</t>
+    </r>
+  </si>
+  <si>
+    <t>（必須）個人隱私條款</t>
+  </si>
+  <si>
+    <t>Política de privacidad</t>
+  </si>
+  <si>
+    <t>（必须）同意收集及使用个人信息</t>
+  </si>
+  <si>
+    <t>EULA3Title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>夜間通知同意</t>
+    </r>
+  </si>
+  <si>
+    <t>（必須）同意夜間接收</t>
+  </si>
+  <si>
+    <t>Aviso de versión nocturna</t>
+  </si>
+  <si>
+    <t>EULAAgreeAll</t>
+  </si>
+  <si>
+    <t>ACCEPT TO ALL</t>
+  </si>
+  <si>
+    <t>모두 동의하기</t>
+  </si>
+  <si>
+    <t>すべて同意</t>
+  </si>
+  <si>
+    <t>全部同意</t>
+  </si>
+  <si>
+    <t>ACEPTAR TODO</t>
+  </si>
+  <si>
+    <t>EULAAgree</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>동의하기</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>DoNotShowToday</t>
+  </si>
+  <si>
+    <t>Don’t show again today</t>
+  </si>
+  <si>
+    <t>오늘 다시 보지 않기</t>
+  </si>
+  <si>
+    <t>今日は表示しない</t>
+  </si>
+  <si>
+    <t>今日不再查看</t>
+  </si>
+  <si>
+    <t>No volver a mostrar hoy</t>
+  </si>
+  <si>
+    <t>今日不再观看</t>
+  </si>
+  <si>
+    <t>AccountLinkMsg</t>
+  </si>
+  <si>
+    <t>The new account has previous game data linked. Do you want to load the old data?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>새로 로그인한 계정에 연동된 이전 게임 데이터가 있습니다</t>
     </r>
     <r>
       <rPr>
@@ -872,7 +877,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">새로 로그인한 계정의 데이터를 불러와서 사용하시겠습니까</t>
+      <t>새로 로그인한 계정의 데이터를 불러와서 사용하시겠습니까</t>
     </r>
     <r>
       <rPr>
@@ -886,22 +891,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">新たにログインしたアカウントに、連携した既存のゲームがあります。新たにログインしたアカウントからデータを引き継ぎますか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新登入的帳號中已存在以前的遊戲數據，是否載入帳號數據？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La nueva cuenta tiene vinculados datos de juego anteriores. ¿Quieres cargar los datos antiguos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新登录的账号中存在以前的游戏数据，是否加载账号数据？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLink1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, remove the old data.
+    <t>新たにログインしたアカウントに、連携した既存のゲームがあります。新たにログインしたアカウントからデータを引き継ぎますか？</t>
+  </si>
+  <si>
+    <t>新登入的帳號中已存在以前的遊戲數據，是否載入帳號數據？</t>
+  </si>
+  <si>
+    <t>La nueva cuenta tiene vinculados datos de juego anteriores. ¿Quieres cargar los datos antiguos?</t>
+  </si>
+  <si>
+    <t>新登录的账号中存在以前的游戏数据，是否加载账号数据？</t>
+  </si>
+  <si>
+    <t>AccountLink1</t>
+  </si>
+  <si>
+    <t>No, remove the old data.
 I will use the current data.</t>
   </si>
   <si>
@@ -913,7 +918,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">새로 로그인한 계정의 예전 데이터를 포기하고</t>
+      <t>새로 로그인한 계정의 예전 데이터를 포기하고</t>
     </r>
     <r>
       <rPr>
@@ -934,30 +939,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">현재 데이터를 새로 로그인한 계정의 데이터로 연결해서 사용</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新たにログインしたアカウントの既存データを放棄し、
+      <t>현재 데이터를 새로 로그인한 계정의 데이터로 연결해서 사용</t>
+    </r>
+  </si>
+  <si>
+    <t>新たにログインしたアカウントの既存データを放棄し、
 現在のデータを新たにログインしたアカウントのデータとして連携する</t>
   </si>
   <si>
-    <t xml:space="preserve">刪除新登入帳號的以前數據，
+    <t>刪除新登入帳號的以前數據，
 並使用當前數據連線新登入的帳號</t>
   </si>
   <si>
-    <t xml:space="preserve">No, borra los datos antiguos.
+    <t>No, borra los datos antiguos.
 Usaré los datos actuales.</t>
   </si>
   <si>
-    <t xml:space="preserve">删除新登录账号以前的数据，
+    <t>删除新登录账号以前的数据，
 并使用当前数据连接新登录的账号</t>
   </si>
   <si>
-    <t xml:space="preserve">AccountLink2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, load the old data.
+    <t>AccountLink2</t>
+  </si>
+  <si>
+    <t>Yes, load the old data.
 I will forfeit the current data.</t>
   </si>
   <si>
@@ -969,7 +974,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">현재 플레이중이던 데이터를 포기하고</t>
+      <t>현재 플레이중이던 데이터를 포기하고</t>
     </r>
     <r>
       <rPr>
@@ -990,399 +995,399 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">새로 로그인한 계정의 예전 데이터를 불러와서 사용</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">現在プレイ中のデータを放棄し、
+      <t>새로 로그인한 계정의 예전 데이터를 불러와서 사용</t>
+    </r>
+  </si>
+  <si>
+    <t>現在プレイ中のデータを放棄し、
 新たにログインしたアカウントの既存データを引き継ぐ</t>
   </si>
   <si>
-    <t xml:space="preserve">刪除當前數據，
+    <t>刪除當前數據，
 並載入新登入帳號的以前數據</t>
   </si>
   <si>
-    <t xml:space="preserve">Sí, carga los datos antiguos.
+    <t>Sí, carga los datos antiguos.
 Perderé los datos actuales.</t>
   </si>
   <si>
-    <t xml:space="preserve">删除当前数据，
+    <t>删除当前数据，
 并加载新登录账号以前的数据</t>
   </si>
   <si>
-    <t xml:space="preserve">AppUpdateTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUIRES AN UPDATE.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">업데이트가 필요합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アップデートが必要です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">需要更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES NECESARIO ACTUALIZAR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NotNow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다음에</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今はしない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下次再說</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MÁS TARDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoToUpdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE NOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">업데이트 하러가기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アップデートする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前往更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZAR YA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">예</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SÍ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아니오</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompleteDownloadFiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE COMPLETE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">업데이트가 완료 되었습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アップデートが完了しました。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新完成。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZACIÓN COMPLETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CheckDownloadFiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking files to be updated.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">업데이트 할 파일을 확인하고 있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">アップデートするファイルを確認しています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正在確認要更新的文件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se están comprobando los archivos para actualizar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正在读取更新文件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErrorDownloadFiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An error has occurred. Checking files to be updated again.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">에러가 발생해서 다시 업데이트 할 파일을 확인하고 있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">エラーが発生しました。再びアップデートするファイルを確認しています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">發生錯誤，正在重新確認要更新的文件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocurrió un error. Se están comprobando de nuevo los archivos para actualizar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发生错误，重新读取更新文件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchasing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURCHASING…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구매중…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入中…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">購買中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">...</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPRANDO...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">购买中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">...</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURCHASE COMPLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구매 성공</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購買成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPRA COMPLETADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">购买成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FailedToPurchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAILED TO PURCHASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구매 실패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入失敗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購買失敗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SE PUDO COMPRAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">购买失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCEL PURCHASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구매 취소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入キャンセル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消購買</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCELAR COMPRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消购买</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerificationFailed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAILED TO VERIFY RECEIPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">영수증 검증 실패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">領収書検証失敗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收據驗證失敗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SE PUDO VERIFICAR EL RECIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收据验证失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NameTag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name :</t>
+    <t>AppUpdateTitle</t>
+  </si>
+  <si>
+    <t>REQUIRES AN UPDATE.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>업데이트가 필요합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>アップデートが必要です。</t>
+  </si>
+  <si>
+    <t>需要更新</t>
+  </si>
+  <si>
+    <t>ES NECESARIO ACTUALIZAR.</t>
+  </si>
+  <si>
+    <t>NotNow</t>
+  </si>
+  <si>
+    <t>LATER</t>
+  </si>
+  <si>
+    <t>다음에</t>
+  </si>
+  <si>
+    <t>今はしない</t>
+  </si>
+  <si>
+    <t>下次再說</t>
+  </si>
+  <si>
+    <t>MÁS TARDE</t>
+  </si>
+  <si>
+    <t>下次</t>
+  </si>
+  <si>
+    <t>GoToUpdate</t>
+  </si>
+  <si>
+    <t>UPDATE NOW</t>
+  </si>
+  <si>
+    <t>업데이트 하러가기</t>
+  </si>
+  <si>
+    <t>アップデートする</t>
+  </si>
+  <si>
+    <t>前往更新</t>
+  </si>
+  <si>
+    <t>ACTUALIZAR YA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>예</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>아니오</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>CompleteDownloadFiles</t>
+  </si>
+  <si>
+    <t>UPDATE COMPLETE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>업데이트가 완료 되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>アップデートが完了しました。</t>
+  </si>
+  <si>
+    <t>更新完成。</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN COMPLETA</t>
+  </si>
+  <si>
+    <t>CheckDownloadFiles</t>
+  </si>
+  <si>
+    <t>Checking files to be updated.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>업데이트 할 파일을 확인하고 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>アップデートするファイルを確認しています。</t>
+  </si>
+  <si>
+    <t>正在確認要更新的文件。</t>
+  </si>
+  <si>
+    <t>Se están comprobando los archivos para actualizar.</t>
+  </si>
+  <si>
+    <t>正在读取更新文件。</t>
+  </si>
+  <si>
+    <t>ErrorDownloadFiles</t>
+  </si>
+  <si>
+    <t>An error has occurred. Checking files to be updated again.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>에러가 발생해서 다시 업데이트 할 파일을 확인하고 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>エラーが発生しました。再びアップデートするファイルを確認しています。</t>
+  </si>
+  <si>
+    <t>發生錯誤，正在重新確認要更新的文件。</t>
+  </si>
+  <si>
+    <t>Ocurrió un error. Se están comprobando de nuevo los archivos para actualizar.</t>
+  </si>
+  <si>
+    <t>发生错误，重新读取更新文件。</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>PURCHASING…</t>
+  </si>
+  <si>
+    <t>구매중…</t>
+  </si>
+  <si>
+    <t>購入中…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>購買中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>COMPRANDO...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>购买中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>PURCHASE COMPLETE</t>
+  </si>
+  <si>
+    <t>구매 성공</t>
+  </si>
+  <si>
+    <t>購入成功</t>
+  </si>
+  <si>
+    <t>購買成功</t>
+  </si>
+  <si>
+    <t>COMPRA COMPLETADA</t>
+  </si>
+  <si>
+    <t>购买成功</t>
+  </si>
+  <si>
+    <t>FailedToPurchase</t>
+  </si>
+  <si>
+    <t>FAILED TO PURCHASE</t>
+  </si>
+  <si>
+    <t>구매 실패</t>
+  </si>
+  <si>
+    <t>購入失敗</t>
+  </si>
+  <si>
+    <t>購買失敗</t>
+  </si>
+  <si>
+    <t>NO SE PUDO COMPRAR</t>
+  </si>
+  <si>
+    <t>购买失败</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>CANCEL PURCHASE</t>
+  </si>
+  <si>
+    <t>구매 취소</t>
+  </si>
+  <si>
+    <t>購入キャンセル</t>
+  </si>
+  <si>
+    <t>取消購買</t>
+  </si>
+  <si>
+    <t>CANCELAR COMPRA</t>
+  </si>
+  <si>
+    <t>取消购买</t>
+  </si>
+  <si>
+    <t>VerificationFailed</t>
+  </si>
+  <si>
+    <t>FAILED TO VERIFY RECEIPT</t>
+  </si>
+  <si>
+    <t>영수증 검증 실패</t>
+  </si>
+  <si>
+    <t>領収書検証失敗</t>
+  </si>
+  <si>
+    <t>收據驗證失敗</t>
+  </si>
+  <si>
+    <t>NO SE PUDO VERIFICAR EL RECIBO</t>
+  </si>
+  <si>
+    <t>收据验证失败</t>
+  </si>
+  <si>
+    <t>NameTag</t>
+  </si>
+  <si>
+    <t>Name :</t>
   </si>
   <si>
     <r>
@@ -1407,22 +1412,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">名前：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名稱：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DescTag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description :</t>
+    <t>名前：</t>
+  </si>
+  <si>
+    <t>名稱：</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>名称：</t>
+  </si>
+  <si>
+    <t>DescTag</t>
+  </si>
+  <si>
+    <t>Description :</t>
   </si>
   <si>
     <r>
@@ -1447,22 +1452,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">説明：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">說明：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">说明：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PriceTag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price :</t>
+    <t>説明：</t>
+  </si>
+  <si>
+    <t>說明：</t>
+  </si>
+  <si>
+    <t>Descripción:</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>PriceTag</t>
+  </si>
+  <si>
+    <t>Price :</t>
   </si>
   <si>
     <r>
@@ -1487,43 +1492,43 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">価格：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">價格：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">价格：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAILED TO CONNECT TO THE SERVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서버 접속 실패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバー接続失敗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伺服器連線失敗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SE PUDO CONECTAR AL SERVIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务器连接失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkErrorMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’re sorry for the inconvenience.
+    <t>価格：</t>
+  </si>
+  <si>
+    <t>價格：</t>
+  </si>
+  <si>
+    <t>Precio:</t>
+  </si>
+  <si>
+    <t>价格：</t>
+  </si>
+  <si>
+    <t>NetworkError</t>
+  </si>
+  <si>
+    <t>FAILED TO CONNECT TO THE SERVER</t>
+  </si>
+  <si>
+    <t>서버 접속 실패</t>
+  </si>
+  <si>
+    <t>サーバー接続失敗</t>
+  </si>
+  <si>
+    <t>伺服器連線失敗</t>
+  </si>
+  <si>
+    <t>NO SE PUDO CONECTAR AL SERVIDOR</t>
+  </si>
+  <si>
+    <t>服务器连接失败</t>
+  </si>
+  <si>
+    <t>NetworkErrorMessage</t>
+  </si>
+  <si>
+    <t>We’re sorry for the inconvenience.
 Please try again later.</t>
   </si>
   <si>
@@ -1535,7 +1540,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">이용에 불편을 드려 죄송합니다</t>
+      <t>이용에 불편을 드려 죄송합니다</t>
     </r>
     <r>
       <rPr>
@@ -1556,101 +1561,101 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">잠시 후 다시 시도해 주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ご迷惑をおかけして申し訳ございません。
+      <t>잠시 후 다시 시도해 주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ご迷惑をおかけして申し訳ございません。
 お手数ですが、しばらくしてからもう一度お試しください。</t>
   </si>
   <si>
-    <t xml:space="preserve">非常抱歉為您帶來不便，
+    <t>非常抱歉為您帶來不便，
 請稍後再試。</t>
   </si>
   <si>
-    <t xml:space="preserve">Sentimos los problemas.
+    <t>Sentimos los problemas.
 Inténtalo de nuevo más tarde.</t>
   </si>
   <si>
-    <t xml:space="preserve">非常抱歉为您带来不便。
+    <t>非常抱歉为您带来不便。
 请稍后再试。</t>
   </si>
   <si>
-    <t xml:space="preserve">Quit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">종료</t>
-  </si>
-  <si>
-    <t xml:space="preserve">終了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuitConfirm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want to quit the game?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">게임을 종료하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲームを終了しますか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確定要結束遊戲嗎？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quieres salir del juego?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确定要结束游戏吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLinkMsg2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want to link the [{0}] account and the current [{1}] account?
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>QUIT</t>
+  </si>
+  <si>
+    <t>종료</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>結束</t>
+  </si>
+  <si>
+    <t>SALIR</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>QuitConfirm</t>
+  </si>
+  <si>
+    <t>Do you want to quit the game?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>게임을 종료하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>ゲームを終了しますか？</t>
+  </si>
+  <si>
+    <t>確定要結束遊戲嗎？</t>
+  </si>
+  <si>
+    <t>¿Quieres salir del juego?</t>
+  </si>
+  <si>
+    <t>确定要结束游戏吗？</t>
+  </si>
+  <si>
+    <t>AccountLinkMsg2</t>
+  </si>
+  <si>
+    <t>Do you want to link the [{0}] account and the current [{1}] account?
 (This action cannot be undone.)</t>
   </si>
   <si>
@@ -1692,17 +1697,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">계정을 연결하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?
+      <t>계정을 연결하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?
 (</t>
     </r>
     <r>
@@ -1713,17 +1718,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">연결된 계정은 끊을 수 없습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.)</t>
+      <t>연결된 계정은 끊을 수 없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.)</t>
     </r>
   </si>
   <si>
@@ -1745,17 +1750,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">アカウントと新たにログインした</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[{1}]</t>
+      <t>アカウントと新たにログインした</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>[{1}]</t>
     </r>
     <r>
       <rPr>
@@ -1776,84 +1781,84 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">連携したアカウントは解除できません</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是否連線【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">】帳號和新登入的【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">】帳號？
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>連携したアカウントは解除できません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>是否連線【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>】帳號和新登入的【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>】帳號？
 （連線的帳號無法斷開。）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">¿Quieres vincular la cuenta [{0}] y la cuenta actual [{1}]?
+    <t>¿Quieres vincular la cuenta [{0}] y la cuenta actual [{1}]?
 (Esta acción no se puede deshacer).</t>
   </si>
   <si>
@@ -1865,66 +1870,66 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是否连接【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">】账号和新登录的【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">】账号？
+      <t>是否连接【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>】账号和新登录的【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>】账号？
 （连接的账号无法断开。）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AccountLink3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, log in and link the accounts.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">예</t>
+    <t>AccountLink3</t>
+  </si>
+  <si>
+    <t>Yes, log in and link the accounts.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>예</t>
     </r>
     <r>
       <rPr>
@@ -1944,47 +1949,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">로그인하고 계정을 연결하겠습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">はい、ログインしてアカウントに連携します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是，登入並連線帳號。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sí, conectarme y vincular las cuentas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是，登录并连接账号。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLink4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, don’t log into the game.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">아니오</t>
+      <t>로그인하고 계정을 연결하겠습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>はい、ログインしてアカウントに連携します。</t>
+  </si>
+  <si>
+    <t>是，登入並連線帳號。</t>
+  </si>
+  <si>
+    <t>Sí, conectarme y vincular las cuentas.</t>
+  </si>
+  <si>
+    <t>是，登录并连接账号。</t>
+  </si>
+  <si>
+    <t>AccountLink4</t>
+  </si>
+  <si>
+    <t>No, don’t log into the game.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>아니오</t>
     </r>
     <r>
       <rPr>
@@ -2004,87 +2009,87 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">로그인을 취소하겠습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ、ログインを取り消します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否，取消登入。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, no conectarme al juego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否，取消登录。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountCannotLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The account is already linked to another game account. Cannot log in.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">이미 다른 게임 계정에 연결되어 있어서 로그인이 불가능합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">すでに他のゲームアカウントと連携しているため、ログインできませんでした。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已連線其他遊戲帳號，無法登入。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cuenta ya está vinculada a otra cuenta de juego. No puedes conectarte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已连接其他游戏账号，无法登录。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLogoutMsg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You tried to log into the game with an account that is already linked to a different game account. Do you want to log out from the current account and log in with a new account?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
+      <t>로그인을 취소하겠습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>いいえ、ログインを取り消します。</t>
+  </si>
+  <si>
+    <t>否，取消登入。</t>
+  </si>
+  <si>
+    <t>No, no conectarme al juego.</t>
+  </si>
+  <si>
+    <t>否，取消登录。</t>
+  </si>
+  <si>
+    <t>AccountCannotLogin</t>
+  </si>
+  <si>
+    <t>The account is already linked to another game account. Cannot log in.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>이미 다른 게임 계정에 연결되어 있어서 로그인이 불가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>すでに他のゲームアカウントと連携しているため、ログインできませんでした。</t>
+  </si>
+  <si>
+    <t>已連線其他遊戲帳號，無法登入。</t>
+  </si>
+  <si>
+    <t>La cuenta ya está vinculada a otra cuenta de juego. No puedes conectarte.</t>
+  </si>
+  <si>
+    <t>已连接其他游戏账号，无法登录。</t>
+  </si>
+  <si>
+    <t>AccountLogoutMsg</t>
+  </si>
+  <si>
+    <t>You tried to log into the game with an account that is already linked to a different game account. Do you want to log out from the current account and log in with a new account?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
     </r>
     <r>
       <rPr>
@@ -2104,47 +2109,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">현재 계정을 로그아웃하고 새로운 계정으로 로그인 하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインしますか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已嘗試使用已連線其他遊戲的帳號登入，是否退出當前帳號並使用新帳號登入？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. ¿Deseas desconectarte de la cuenta actual y conectarte con una cuenta nueva?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已尝试使用正在连接其他游戏的账号登录，是否退出当前账号并使用新账号登录？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLogout1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, I want to log in with a new account.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">예</t>
+      <t>현재 계정을 로그아웃하고 새로운 계정으로 로그인 하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインしますか？</t>
+  </si>
+  <si>
+    <t>已嘗試使用已連線其他遊戲的帳號登入，是否退出當前帳號並使用新帳號登入？</t>
+  </si>
+  <si>
+    <t>Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. ¿Deseas desconectarte de la cuenta actual y conectarte con una cuenta nueva?</t>
+  </si>
+  <si>
+    <t>已尝试使用正在连接其他游戏的账号登录，是否退出当前账号并使用新账号登录？</t>
+  </si>
+  <si>
+    <t>AccountLogout1</t>
+  </si>
+  <si>
+    <t>Yes, I want to log in with a new account.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>예</t>
     </r>
     <r>
       <rPr>
@@ -2164,47 +2169,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">새로운 계정으로 로그인하겠습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">はい、新しいアカウントでログインします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是，使用新帳號登入。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sí, quiero conectarme con una cuenta nueva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是，使用新账号登录。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLogoutMsg2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You tried to log into the game with an account that is already linked to a different game account. Logging out from the current account and logging in with a new account.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
+      <t>새로운 계정으로 로그인하겠습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>はい、新しいアカウントでログインします。</t>
+  </si>
+  <si>
+    <t>是，使用新帳號登入。</t>
+  </si>
+  <si>
+    <t>Sí, quiero conectarme con una cuenta nueva.</t>
+  </si>
+  <si>
+    <t>是，使用新账号登录。</t>
+  </si>
+  <si>
+    <t>AccountLogoutMsg2</t>
+  </si>
+  <si>
+    <t>You tried to log into the game with an account that is already linked to a different game account. Logging out from the current account and logging in with a new account.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
     </r>
     <r>
       <rPr>
@@ -2224,68 +2229,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">현재 계정을 로그아웃하고 새로운 계정으로 로그인합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已嘗試使用已連線其他遊戲的帳號登入，即將退出當前帳號並使用新帳號登入。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. Desconéctate de la cuenta actual y conéctate con una cuenta nueva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已尝试使用正在连接其他游戏的账号登录，即将退出当前账号并使用新账号登录。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EULADetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상세보기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">詳細</t>
-  </si>
-  <si>
-    <t xml:space="preserve">詳細查看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">详细查看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountLoginIOSSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log in to your GameCenter account at "Settings&gt; GameCenter" and try again.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">iOS</t>
+      <t>현재 계정을 로그아웃하고 새로운 계정으로 로그인합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインします。</t>
+  </si>
+  <si>
+    <t>已嘗試使用已連線其他遊戲的帳號登入，即將退出當前帳號並使用新帳號登入。</t>
+  </si>
+  <si>
+    <t>Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. Desconéctate de la cuenta actual y conéctate con una cuenta nueva.</t>
+  </si>
+  <si>
+    <t>已尝试使用正在连接其他游戏的账号登录，即将退出当前账号并使用新账号登录。</t>
+  </si>
+  <si>
+    <t>EULADetail</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>상세보기</t>
+  </si>
+  <si>
+    <t>詳細</t>
+  </si>
+  <si>
+    <t>詳細查看</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>详细查看</t>
+  </si>
+  <si>
+    <t>AccountLoginIOSSetting</t>
+  </si>
+  <si>
+    <t>Log in to your GameCenter account at "Settings&gt; GameCenter" and try again.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>iOS</t>
     </r>
     <r>
       <rPr>
@@ -2305,7 +2310,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"</t>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -2335,81 +2340,81 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">항목에서 계정을 로그인 하신 후 사용하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">iOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">の「設定→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Game Center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">」からアカウントにログインしてからお試しください。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">請在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">iOS“</t>
+      <t>항목에서 계정을 로그인 하신 후 사용하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>の「設定→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Game Center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>」からアカウントにログインしてからお試しください。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>請在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>iOS“</t>
     </r>
     <r>
       <rPr>
@@ -2429,42 +2434,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&gt; GameCenter”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">登入帳號後使用。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Conéctate a tu cuenta de Game Center en “Ajustes &gt; Game Center” e inténtalo de nuevo.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">请在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">iOS“</t>
+      <t>&gt; GameCenter”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>登入帳號後使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Conéctate a tu cuenta de Game Center en “Ajustes &gt; Game Center” e inténtalo de nuevo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>请在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>iOS“</t>
     </r>
     <r>
       <rPr>
@@ -2484,45 +2489,45 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&gt; GameCenter”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">登录账号后使用。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">EmailContent1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please type your inquiry below this line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아래에 문의하실 내용을 입력해주세요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下記のフォームにお問合せ内容をご記入ください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">請在下方輸入諮詢內容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escribe tu consulta tras esta línea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请在下方输入要咨询的内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServerMaintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This service is under maintenance.
+      <t>&gt; GameCenter”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>登录账号后使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>EmailContent1</t>
+  </si>
+  <si>
+    <t>Please type your inquiry below this line</t>
+  </si>
+  <si>
+    <t>아래에 문의하실 내용을 입력해주세요</t>
+  </si>
+  <si>
+    <t>下記のフォームにお問合せ内容をご記入ください。</t>
+  </si>
+  <si>
+    <t>請在下方輸入諮詢內容</t>
+  </si>
+  <si>
+    <t>Escribe tu consulta tras esta línea</t>
+  </si>
+  <si>
+    <t>请在下方输入要咨询的内容</t>
+  </si>
+  <si>
+    <t>ServerMaintenance</t>
+  </si>
+  <si>
+    <t>This service is under maintenance.
 We apologize for the inconvenience.</t>
   </si>
   <si>
@@ -2534,7 +2539,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">게임 서비스를 점검 중입니다</t>
+      <t>게임 서비스를 점검 중입니다</t>
     </r>
     <r>
       <rPr>
@@ -2555,61 +2560,61 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">이용에 불편을 드려 죄송합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">現在、メンテナンスを行っています。
+      <t>이용에 불편을 드려 죄송합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>現在、メンテナンスを行っています。
 ご迷惑をおかけして申し訳ございません。</t>
   </si>
   <si>
-    <t xml:space="preserve">正在維護遊戲伺服器，
+    <t>正在維護遊戲伺服器，
 非常抱歉為您帶來不便。</t>
   </si>
   <si>
-    <t xml:space="preserve">El servicio está en mantenimiento.
+    <t>El servicio está en mantenimiento.
 Sentimos las molestias.</t>
   </si>
   <si>
-    <t xml:space="preserve">服务器正在维护，
+    <t>服务器正在维护，
 很抱歉为您带来不便。</t>
   </si>
   <si>
-    <t xml:space="preserve">MaintenanceNetworkError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unstable Network Connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네트워크 불안정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークが不安定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">網路不穩定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problemas de red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网络不稳定。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaintenanceNetworkErrorMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network connection is unstable.
+    <t>MaintenanceNetworkError</t>
+  </si>
+  <si>
+    <t>Unstable Network Connection</t>
+  </si>
+  <si>
+    <t>네트워크 불안정</t>
+  </si>
+  <si>
+    <t>ネットワークが不安定</t>
+  </si>
+  <si>
+    <t>網路不穩定</t>
+  </si>
+  <si>
+    <t>Problemas de red</t>
+  </si>
+  <si>
+    <t>网络不稳定。</t>
+  </si>
+  <si>
+    <t>MaintenanceNetworkErrorMessage</t>
+  </si>
+  <si>
+    <t>Network connection is unstable.
 Would you like to try connecting again?</t>
   </si>
   <si>
@@ -2621,7 +2626,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">네트워크 접속이 불안정합니다</t>
+      <t>네트워크 접속이 불안정합니다</t>
     </r>
     <r>
       <rPr>
@@ -2642,7 +2647,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">접속을 다시 시도해 보시겠습니까</t>
+      <t>접속을 다시 시도해 보시겠습니까</t>
     </r>
     <r>
       <rPr>
@@ -2652,68 +2657,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク接続が不安定です。
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>ネットワーク接続が不安定です。
 接続をもう一度やり直しますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">網路不穩定，
+    <t>網路不穩定，
 重新嘗試連線？</t>
   </si>
   <si>
-    <t xml:space="preserve">Hay problemas de red.
+    <t>Hay problemas de red.
 ¿Te gustaría intentar conectarte de nuevo?</t>
   </si>
   <si>
-    <t xml:space="preserve">网络不稳定，尝试重新登录？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServerMaintenanceTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서버 점검중</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メンテナンス中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伺服器維護中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务器维护中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">닫기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">閉じる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">關閉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关闭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBBFileError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBB File Missing</t>
+    <t>网络不稳定，尝试重新登录？</t>
+  </si>
+  <si>
+    <t>ServerMaintenanceTitle</t>
+  </si>
+  <si>
+    <t>Under Maintenance</t>
+  </si>
+  <si>
+    <t>서버 점검중</t>
+  </si>
+  <si>
+    <t>メンテナンス中</t>
+  </si>
+  <si>
+    <t>伺服器維護中</t>
+  </si>
+  <si>
+    <t>En mantenimiento</t>
+  </si>
+  <si>
+    <t>服务器维护中</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>닫기</t>
+  </si>
+  <si>
+    <t>閉じる</t>
+  </si>
+  <si>
+    <t>關閉</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>OBBFileError</t>
+  </si>
+  <si>
+    <t>OBB File Missing</t>
   </si>
   <si>
     <r>
@@ -2734,7 +2739,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">파일 없음</t>
+      <t>파일 없음</t>
     </r>
   </si>
   <si>
@@ -2746,7 +2751,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">OBB</t>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -2756,7 +2761,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ファイル</t>
+      <t>ファイル</t>
     </r>
     <r>
       <rPr>
@@ -2766,7 +2771,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">無</t>
+      <t>無</t>
     </r>
     <r>
       <rPr>
@@ -2776,7 +2781,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">し</t>
+      <t>し</t>
     </r>
   </si>
   <si>
@@ -2788,7 +2793,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">無法找到</t>
+      <t>無法找到</t>
     </r>
     <r>
       <rPr>
@@ -2798,7 +2803,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">OBB</t>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -2808,49 +2813,49 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">檔案</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">El archivo OBB falta</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OBB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">文件</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OBBFileErrorMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could not find a valid OBB file or the file may be damaged. Please delete the application and reinstall the game.</t>
+      <t>檔案</t>
+    </r>
+  </si>
+  <si>
+    <t>El archivo OBB falta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>OBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+  </si>
+  <si>
+    <t>OBBFileErrorMessage</t>
+  </si>
+  <si>
+    <t>Could not find a valid OBB file or the file may be damaged. Please delete the application and reinstall the game.</t>
   </si>
   <si>
     <r>
@@ -2871,7 +2876,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">파일을 찾을 수 없거나, 파일이 손상되었습니다</t>
+      <t>파일을 찾을 수 없거나, 파일이 손상되었습니다</t>
     </r>
     <r>
       <rPr>
@@ -2892,17 +2897,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">게임 앱을 제거후 재설치하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+      <t>게임 앱을 제거후 재설치하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -2914,7 +2919,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">OBB</t>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -2924,7 +2929,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ファイルを</t>
+      <t>ファイルを</t>
     </r>
     <r>
       <rPr>
@@ -2934,7 +2939,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">見</t>
+      <t>見</t>
     </r>
     <r>
       <rPr>
@@ -2944,7 +2949,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">つけることができないか</t>
+      <t>つけることができないか</t>
     </r>
     <r>
       <rPr>
@@ -2954,7 +2959,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">、</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -2964,7 +2969,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ファイルが</t>
+      <t>ファイルが</t>
     </r>
     <r>
       <rPr>
@@ -2974,7 +2979,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">破損</t>
+      <t>破損</t>
     </r>
     <r>
       <rPr>
@@ -2984,7 +2989,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">しています</t>
+      <t>しています</t>
     </r>
     <r>
       <rPr>
@@ -3005,7 +3010,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ゲームアプリを</t>
+      <t>ゲームアプリを</t>
     </r>
     <r>
       <rPr>
@@ -3015,7 +3020,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">削除</t>
+      <t>削除</t>
     </r>
     <r>
       <rPr>
@@ -3025,7 +3030,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">した</t>
+      <t>した</t>
     </r>
     <r>
       <rPr>
@@ -3035,7 +3040,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">後、再</t>
+      <t>後、再</t>
     </r>
     <r>
       <rPr>
@@ -3045,7 +3050,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">インストールしてください</t>
+      <t>インストールしてください</t>
     </r>
     <r>
       <rPr>
@@ -3055,7 +3060,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">。</t>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -3067,7 +3072,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">無法找到</t>
+      <t>無法找到</t>
     </r>
     <r>
       <rPr>
@@ -3077,7 +3082,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">OBB</t>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -3087,7 +3092,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">檔案</t>
+      <t>檔案</t>
     </r>
     <r>
       <rPr>
@@ -3107,7 +3112,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">或該檔案已損失</t>
+      <t>或該檔案已損失</t>
     </r>
     <r>
       <rPr>
@@ -3127,7 +3132,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">請刪除遊戲後重新安裝</t>
+      <t>請刪除遊戲後重新安裝</t>
     </r>
     <r>
       <rPr>
@@ -3137,50 +3142,50 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">No se puede encontrar un archivo OBB valido  o el archivo podría estar dañado. Por favor, borra la aplicación  y reinstala el juego.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">找不到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OBB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">文件，或已损坏。
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>No se puede encontrar un archivo OBB valido  o el archivo podría estar dañado. Por favor, borra la aplicación  y reinstala el juego.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>找不到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>OBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>文件，或已损坏。
 请删除游戏后重新安装。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">OBBFileDownloadMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-downloading OBB File to proceed the game.
+    <t>OBBFileDownloadMessage</t>
+  </si>
+  <si>
+    <t>Re-downloading OBB File to proceed the game.
  &lt;color=#FF8080FF&gt;WIFI Connection recomended&lt;/color&gt;
 (File Size : {0} MB)</t>
   </si>
@@ -3193,7 +3198,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">게임 진행을 위해 OBB 파일을 다시 다운로드합니다</t>
+      <t>게임 진행을 위해 OBB 파일을 다시 다운로드합니다</t>
     </r>
     <r>
       <rPr>
@@ -3214,17 +3219,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">연결을 하시는 것이 좋습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/color&gt;
+      <t>연결을 하시는 것이 좋습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;
 (</t>
     </r>
     <r>
@@ -3245,7 +3250,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: {0} MB)</t>
+      <t>: {0} MB)</t>
     </r>
   </si>
   <si>
@@ -3257,7 +3262,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ゲームの</t>
+      <t>ゲームの</t>
     </r>
     <r>
       <rPr>
@@ -3267,7 +3272,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">進行</t>
+      <t>進行</t>
     </r>
     <r>
       <rPr>
@@ -3277,7 +3282,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">のため</t>
+      <t>のため</t>
     </r>
     <r>
       <rPr>
@@ -3287,7 +3292,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">、</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -3297,7 +3302,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">OBB</t>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -3307,7 +3312,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ファイルを</t>
+      <t>ファイルを</t>
     </r>
     <r>
       <rPr>
@@ -3317,7 +3322,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">再度</t>
+      <t>再度</t>
     </r>
     <r>
       <rPr>
@@ -3327,7 +3332,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ダウンロードします</t>
+      <t>ダウンロードします</t>
     </r>
     <r>
       <rPr>
@@ -3337,7 +3342,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">。</t>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -3347,7 +3352,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">&lt;color=</t>
+      <t>&lt;color=</t>
     </r>
     <r>
       <rPr>
@@ -3357,7 +3362,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">＃</t>
+      <t>＃</t>
     </r>
     <r>
       <rPr>
@@ -3367,7 +3372,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">FF8080FF&gt; WIFI</t>
+      <t>FF8080FF&gt; WIFI</t>
     </r>
     <r>
       <rPr>
@@ -3377,7 +3382,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">環境</t>
+      <t>環境</t>
     </r>
     <r>
       <rPr>
@@ -3387,7 +3392,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">でのダウンロードをお勧めします</t>
+      <t>でのダウンロードをお勧めします</t>
     </r>
     <r>
       <rPr>
@@ -3397,7 +3402,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">。</t>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -3407,7 +3412,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">&lt;/ color&gt;</t>
+      <t>&lt;/ color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -3417,7 +3422,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">（</t>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3427,7 +3432,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ファイルサイズ</t>
+      <t>ファイルサイズ</t>
     </r>
     <r>
       <rPr>
@@ -3437,7 +3442,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">：</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -3447,7 +3452,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">{0} MB</t>
+      <t>{0} MB</t>
     </r>
     <r>
       <rPr>
@@ -3457,7 +3462,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
@@ -3469,7 +3474,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">為了進行遊戲從新下載</t>
+      <t>為了進行遊戲從新下載</t>
     </r>
     <r>
       <rPr>
@@ -3479,7 +3484,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">OBB</t>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -3489,7 +3494,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">檔案</t>
+      <t>檔案</t>
     </r>
     <r>
       <rPr>
@@ -3499,7 +3504,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">. &lt;color=#FF8080FF&gt;</t>
+      <t>. &lt;color=#FF8080FF&gt;</t>
     </r>
     <r>
       <rPr>
@@ -3509,7 +3514,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">請盡量使用</t>
+      <t>請盡量使用</t>
     </r>
     <r>
       <rPr>
@@ -3519,7 +3524,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Wifi</t>
+      <t>Wifi</t>
     </r>
     <r>
       <rPr>
@@ -3529,7 +3534,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">網路下載</t>
+      <t>網路下載</t>
     </r>
     <r>
       <rPr>
@@ -3539,7 +3544,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">&lt;/color&gt; (</t>
+      <t>&lt;/color&gt; (</t>
     </r>
     <r>
       <rPr>
@@ -3549,7 +3554,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">數據包大小</t>
+      <t>數據包大小</t>
     </r>
     <r>
       <rPr>
@@ -3563,28 +3568,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Se descargara de nuevo el archivo OBB para continuar el juego. &lt;color=#FF8080FF&gt;Se recomienda el uso de una red wifi.&lt;/color&gt; (Tamaño del archivo: {0} MB).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">为了正常游戏，需要重新下载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OBB</t>
+    <t>Se descargara de nuevo el archivo OBB para continuar el juego. &lt;color=#FF8080FF&gt;Se recomienda el uso de una red wifi.&lt;/color&gt; (Tamaño del archivo: {0} MB).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>为了正常游戏，需要重新下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>OBB</t>
     </r>
     <r>
       <rPr>
@@ -3605,17 +3610,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">建议连接</t>
+      <t>&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>建议连接</t>
     </r>
     <r>
       <rPr>
@@ -3636,55 +3641,55 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">（文件大小：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{0}MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">AppPermissionsTitle1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access Permission for App Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원활한 게임 이용을 위한 접근 권한 안내</t>
-  </si>
-  <si>
-    <t xml:space="preserve">快適なゲームプレイのためのアクセス権限のご案内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">為保障流暢的遊戲環境所需訪問許可權介紹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERMISO DE ACCESO PARA EL USO DEL JUEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">为保障流畅的游戏环境所需访问权限介绍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppPermissionsInfo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Photos, media, and files]
+      <t>（文件大小：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>AppPermissionsTitle1</t>
+  </si>
+  <si>
+    <t>Access Permission for App Usage</t>
+  </si>
+  <si>
+    <t>원활한 게임 이용을 위한 접근 권한 안내</t>
+  </si>
+  <si>
+    <t>快適なゲームプレイのためのアクセス権限のご案内</t>
+  </si>
+  <si>
+    <t>為保障流暢的遊戲環境所需訪問許可權介紹</t>
+  </si>
+  <si>
+    <t>PERMISO DE ACCESO PARA EL USO DEL JUEGO</t>
+  </si>
+  <si>
+    <t>为保障流畅的游戏环境所需访问权限介绍</t>
+  </si>
+  <si>
+    <t>AppPermissionsInfo1</t>
+  </si>
+  <si>
+    <t>[Photos, media, and files]
 This access permission is required and allows us to store the app on your external memory. 
 Giving permission will enable us to install the game on the external storage 
 if you do not have enough space on your internal storage. 
@@ -3702,17 +3707,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">기기 사진</t>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>기기 사진</t>
     </r>
     <r>
       <rPr>
@@ -3732,7 +3737,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">미디어</t>
+      <t>미디어</t>
     </r>
     <r>
       <rPr>
@@ -3752,7 +3757,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">파일 엑세스</t>
+      <t>파일 엑세스</t>
     </r>
     <r>
       <rPr>
@@ -3773,7 +3778,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">이 권한은 외장 메모리에 게임을 저장하기 위해 필요한 권한입니다</t>
+      <t>이 권한은 외장 메모리에 게임을 저장하기 위해 필요한 권한입니다</t>
     </r>
     <r>
       <rPr>
@@ -3794,7 +3799,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">권한을 허용하면 단말기 용량 부족 시 외장 메모리로
+      <t>권한을 허용하면 단말기 용량 부족 시 외장 메모리로
 게임을 설치하실 수 있습니다</t>
     </r>
     <r>
@@ -3805,7 +3810,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. 
+      <t>. 
 (</t>
     </r>
     <r>
@@ -3816,7 +3821,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">고객님의 사진과 파일에는 접근하지 않습니다</t>
+      <t>고객님의 사진과 파일에는 접근하지 않습니다</t>
     </r>
     <r>
       <rPr>
@@ -3837,7 +3842,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">위 권한은 명시된 사유 외 다른 목적으로 사용되지 않으며</t>
+      <t>위 권한은 명시된 사유 외 다른 목적으로 사용되지 않으며</t>
     </r>
     <r>
       <rPr>
@@ -3857,7 +3862,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">접근 권한 거절 시
+      <t>접근 권한 거절 시
 더 이상 진행이 불가합니다</t>
     </r>
     <r>
@@ -3878,39 +3883,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">게임 이용을 위해 접근 권한을 허용해 주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">端末、</t>
+      <t>게임 이용을 위해 접근 권한을 허용해 주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>端末、</t>
     </r>
     <r>
       <rPr>
@@ -3920,7 +3925,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">写真</t>
+      <t>写真</t>
     </r>
     <r>
       <rPr>
@@ -3930,7 +3935,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">、メディア、ファイルアクセス]
+      <t>、メディア、ファイルアクセス]
 この</t>
     </r>
     <r>
@@ -3941,7 +3946,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">権</t>
+      <t>権</t>
     </r>
     <r>
       <rPr>
@@ -3951,7 +3956,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">限は、外付けメモリにゲ</t>
+      <t>限は、外付けメモリにゲ</t>
     </r>
     <r>
       <rPr>
@@ -3961,7 +3966,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ー</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -3971,7 +3976,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">ムを保存するために必要な</t>
+      <t>ムを保存するために必要な</t>
     </r>
     <r>
       <rPr>
@@ -3981,7 +3986,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">権</t>
+      <t>権</t>
     </r>
     <r>
       <rPr>
@@ -4002,7 +4007,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">権</t>
+      <t>権</t>
     </r>
     <r>
       <rPr>
@@ -4012,7 +4017,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">限を許容すると、端末が容量不足になった場合に外付けメモリに
+      <t>限を許容すると、端末が容量不足になった場合に外付けメモリに
 ゲ</t>
     </r>
     <r>
@@ -4023,7 +4028,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ー</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -4033,7 +4038,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">ムをインスト</t>
+      <t>ムをインスト</t>
     </r>
     <r>
       <rPr>
@@ -4043,7 +4048,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ー</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -4053,7 +4058,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">ルすることができます。
+      <t>ルすることができます。
 (</t>
     </r>
     <r>
@@ -4064,7 +4069,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">写真</t>
+      <t>写真</t>
     </r>
     <r>
       <rPr>
@@ -4074,7 +4079,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">やファイルにはアクセスしません)
+      <t>やファイルにはアクセスしません)
 上記の</t>
     </r>
     <r>
@@ -4085,7 +4090,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">権</t>
+      <t>権</t>
     </r>
     <r>
       <rPr>
@@ -4095,7 +4100,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">限は、明示された事由以外の目的に使用されることはなく、
+      <t>限は、明示された事由以外の目的に使用されることはなく、
 アクセス</t>
     </r>
     <r>
@@ -4106,7 +4111,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">権</t>
+      <t>権</t>
     </r>
     <r>
       <rPr>
@@ -4116,7 +4121,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">限を拒否した場合はそれ以上はプレイができなくなります。
+      <t>限を拒否した場合はそれ以上はプレイができなくなります。
 ゲ</t>
     </r>
     <r>
@@ -4127,7 +4132,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ー</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -4137,7 +4142,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">ムプレイのためにアクセス</t>
+      <t>ムプレイのためにアクセス</t>
     </r>
     <r>
       <rPr>
@@ -4147,7 +4152,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">権</t>
+      <t>権</t>
     </r>
     <r>
       <rPr>
@@ -4157,11 +4162,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">限を許容してください。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">【訪問設備照片、視頻、文件】
+      <t>限を許容してください。</t>
+    </r>
+  </si>
+  <si>
+    <t>【訪問設備照片、視頻、文件】
 在移動硬碟儲存遊戲時所需許可權。
 允許許可權後，設備硬碟容量不足時，將安裝在
 移動硬碟。
@@ -4170,7 +4175,7 @@
 將無法繼續，請允許訪問許可權。</t>
   </si>
   <si>
-    <t xml:space="preserve">[Imágenes, multimedia y archivos]
+    <t>[Imágenes, multimedia y archivos]
 Este permiso de acceso es obligatorio y nos permite almacenar la aplicación en su memoria externa.
 Dar permiso nos permitirá instalar el juego en el almacenamiento externo
 Si no tiene suficiente espacio en su almacenamiento interno.
@@ -4180,7 +4185,7 @@
 Otorgue el permiso de acceso requerido para poder utilizar la aplicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">【访问设备照片、视频、文件】
+    <t>【访问设备照片、视频、文件】
 在移动硬盘保存游戏时所需权限。
 允许权限后，设备硬盘容量不足时，将安装在
 移动硬盘。
@@ -4189,58 +4194,58 @@
 将无法继续，请允许访问权限。</t>
   </si>
   <si>
-    <t xml:space="preserve">AppPermissionsTitle2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resetting Access Permission for App Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원활한 게임 이용을 위한 접근 권한 재 설정 안내</t>
-  </si>
-  <si>
-    <t xml:space="preserve">快適なゲームプレイのためのアクセス権限再設定のご案内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">為保障流暢的遊戲環境所需訪問許可權重新設定相關介紹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REINICIAR EL PERMISO DE ACCESO PARA UN USO CONTINUO DEL JUEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">为保障流畅的游戏环境所需访问权限重新设定相关介绍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppPermissionsInfo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a required authority to use the game.
+    <t>AppPermissionsTitle2</t>
+  </si>
+  <si>
+    <t>Resetting Access Permission for App Usage</t>
+  </si>
+  <si>
+    <t>원활한 게임 이용을 위한 접근 권한 재 설정 안내</t>
+  </si>
+  <si>
+    <t>快適なゲームプレイのためのアクセス権限再設定のご案内</t>
+  </si>
+  <si>
+    <t>為保障流暢的遊戲環境所需訪問許可權重新設定相關介紹</t>
+  </si>
+  <si>
+    <t>REINICIAR EL PERMISO DE ACCESO PARA UN USO CONTINUO DEL JUEGO</t>
+  </si>
+  <si>
+    <t>为保障流畅的游戏环境所需访问权限重新设定相关介绍</t>
+  </si>
+  <si>
+    <t>AppPermissionsInfo2</t>
+  </si>
+  <si>
+    <t>This is a required authority to use the game.
 You'll be moved to the app settings screen. Please allow the usage of the storage space.</t>
   </si>
   <si>
-    <t xml:space="preserve">게임 이용에 필요한 필수 권한입니다.
+    <t>게임 이용에 필요한 필수 권한입니다.
 앱 설정 화면으로 이동합니다. "저장공간"권한을 허용해 주시기 바랍니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">ゲーム利用に必要な必須権限です。 
+    <t>ゲーム利用に必要な必須権限です。 
 アプリ設定画面に移動します。 「保存空間」の権限を許可してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">遊玩遊戲時必要的權限. 
+    <t>遊玩遊戲時必要的權限. 
 自動移動到App設定頁面. 請允許"儲存空間"的權限.</t>
   </si>
   <si>
-    <t xml:space="preserve">Para usar el juego se requiere esta autoridad. 
+    <t>Para usar el juego se requiere esta autoridad. 
 Ir a la pantalla de configuración de la aplicación. Permitir el uso del espacio de almacenamiento.</t>
   </si>
   <si>
-    <t xml:space="preserve">进行游戏必备权限。
+    <t>进行游戏必备权限。
 返回设置页面。点击允许访问“储存空间”权限</t>
   </si>
   <si>
-    <t xml:space="preserve">LoginErrorMessage2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A temporary error has occurred while logging in. Please try again later.</t>
+    <t>LoginErrorMessage2</t>
+  </si>
+  <si>
+    <t>A temporary error has occurred while logging in. Please try again later.</t>
   </si>
   <si>
     <r>
@@ -4249,7 +4254,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">로그인 과정에서 일시적인 오류가 발생하였습니다</t>
+      <t>로그인 과정에서 일시적인 오류가 발생하였습니다</t>
     </r>
     <r>
       <rPr>
@@ -4266,7 +4271,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">잠시 후 다시 시도해주세요</t>
+      <t>잠시 후 다시 시도해주세요</t>
     </r>
     <r>
       <rPr>
@@ -4275,71 +4280,99 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ログイン中、一時的なエラーが発生しました。しばらくしてからもう一度お試しください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登入時發生暫時性錯誤。請稍候再試</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se produjo un error temporal en el proceso de inicio de sesión. Intente de nuevo más tarde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录过程中发生异常，请稍后再试。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginErrorTitle</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ログイン中、一時的なエラーが発生しました。しばらくしてからもう一度お試しください。</t>
+  </si>
+  <si>
+    <t>登入時發生暫時性錯誤。請稍候再試</t>
+  </si>
+  <si>
+    <t>Se produjo un error temporal en el proceso de inicio de sesión. Intente de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>登录过程中发生异常，请稍后再试。</t>
+  </si>
+  <si>
+    <t>LoginErrorTitle</t>
   </si>
   <si>
     <t xml:space="preserve">LOGIN </t>
   </si>
   <si>
-    <t xml:space="preserve">로그인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginErrorMessage1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed to log in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인에 실패했습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログインに失敗しました。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登入失敗。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se ha podido iniciar sesión.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录失败。</t>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>登入</t>
+  </si>
+  <si>
+    <t>CONECTAR</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>LoginErrorMessage1</t>
+  </si>
+  <si>
+    <t>Failed to log in.</t>
+  </si>
+  <si>
+    <t>로그인에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>ログインに失敗しました。</t>
+  </si>
+  <si>
+    <t>登入失敗。</t>
+  </si>
+  <si>
+    <t>No se ha podido iniciar sesión.</t>
+  </si>
+  <si>
+    <t>登录失败。</t>
+  </si>
+  <si>
+    <t>Please Touch the screen to Play</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartMessage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>게임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시작하기 위해 화면을 터치</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面をタッチしてください</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请触摸屏幕</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -4347,21 +4380,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4477,6 +4495,26 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4499,7 +4537,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4507,183 +4545,425 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.55"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="76.25" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="4" max="4" width="59.5" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="60.875" customWidth="1"/>
+    <col min="7" max="7" width="68.25" customWidth="1"/>
+    <col min="8" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4695,18 +4975,18 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4718,37 +4998,37 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="47.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -4771,11 +5051,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4787,87 +5067,87 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4879,18 +5159,18 @@
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4902,18 +5182,18 @@
       <c r="E11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4925,18 +5205,18 @@
       <c r="E12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4948,14 +5228,14 @@
       <c r="E13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="193.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="44.25">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -4978,7 +5258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
@@ -5001,11 +5281,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5017,18 +5297,18 @@
       <c r="E16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5040,18 +5320,18 @@
       <c r="E17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>108</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5063,18 +5343,18 @@
       <c r="E18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5086,18 +5366,18 @@
       <c r="E19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5109,18 +5389,18 @@
       <c r="E20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>123</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5132,18 +5412,18 @@
       <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5155,18 +5435,18 @@
       <c r="E22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>138</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5178,18 +5458,18 @@
       <c r="E23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5201,18 +5481,18 @@
       <c r="E24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>152</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5224,18 +5504,18 @@
       <c r="E25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5247,18 +5527,18 @@
       <c r="E26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5270,18 +5550,18 @@
       <c r="E27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>173</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5293,18 +5573,18 @@
       <c r="E28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>180</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5316,18 +5596,18 @@
       <c r="E29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5339,18 +5619,18 @@
       <c r="E30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>194</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5362,18 +5642,18 @@
       <c r="E31" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>201</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -5385,15 +5665,15 @@
       <c r="E32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>208</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="161.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:7" ht="31.5">
+      <c r="A33" t="s">
         <v>210</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -5415,11 +5695,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5431,18 +5711,18 @@
       <c r="E34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>222</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5454,15 +5734,15 @@
       <c r="E35" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="177.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:7" ht="45.75">
+      <c r="A36" t="s">
         <v>231</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5484,11 +5764,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>239</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -5500,18 +5780,18 @@
       <c r="E37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>243</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>245</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>246</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5523,18 +5803,18 @@
       <c r="E38" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>250</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>252</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>253</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -5546,18 +5826,18 @@
       <c r="E39" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>257</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>259</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>260</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5569,18 +5849,18 @@
       <c r="E40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>264</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
         <v>266</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>267</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5592,18 +5872,18 @@
       <c r="E41" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>271</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>273</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>274</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5615,18 +5895,18 @@
       <c r="E42" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>278</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>281</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5638,41 +5918,41 @@
       <c r="E43" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>285</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>287</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>288</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>289</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>290</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>292</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>294</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>295</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5684,15 +5964,15 @@
       <c r="E45" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>299</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:7" ht="31.5">
+      <c r="A46" t="s">
         <v>301</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -5714,11 +5994,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>308</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>309</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5730,15 +6010,15 @@
       <c r="E47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>313</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="97.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:7" ht="34.5">
+      <c r="A48" t="s">
         <v>315</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -5760,11 +6040,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>323</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5776,14 +6056,14 @@
       <c r="E49" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>327</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:7" s="5" customFormat="1">
       <c r="A50" s="5" t="s">
         <v>329</v>
       </c>
@@ -5806,7 +6086,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" ht="21" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>335</v>
       </c>
@@ -5829,7 +6109,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="187.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" ht="58.5">
       <c r="A52" s="6" t="s">
         <v>342</v>
       </c>
@@ -5852,7 +6132,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="289.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" ht="58.5">
       <c r="A53" s="6" t="s">
         <v>349</v>
       </c>
@@ -5875,11 +6155,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>357</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -5891,14 +6171,14 @@
       <c r="E54" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>361</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="774" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7" ht="241.5">
       <c r="A55" s="6" t="s">
         <v>363</v>
       </c>
@@ -5921,11 +6201,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>371</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -5937,14 +6217,14 @@
       <c r="E56" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>375</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:7" ht="63">
       <c r="A57" s="6" t="s">
         <v>377</v>
       </c>
@@ -5967,8 +6247,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:7" ht="17.25">
+      <c r="A58" t="s">
         <v>384</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -5990,11 +6270,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:7" ht="17.25">
+      <c r="A59" t="s">
         <v>391</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>392</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -6013,8 +6293,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:7" ht="17.25">
+      <c r="A60" t="s">
         <v>398</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -6036,14 +6316,26 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" spans="1:7" ht="19.5">
+      <c r="A61" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" t="s">
+        <v>405</v>
+      </c>
+      <c r="C61" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="E61" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Haegin/Text/Editor/TextTable.xlsx
+++ b/Assets/Haegin/Text/Editor/TextTable.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CRJCC\Assets\Haegin\Text\Editor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF4861-0ED6-44FD-8B1C-531AC4E280A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,72 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="410">
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>ChineseTraditional</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>ChineseSimplified</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>CANCEL</t>
-  </si>
-  <si>
-    <t>취소</t>
-  </si>
-  <si>
-    <t>キャンセル</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>CANCELAR</t>
-  </si>
-  <si>
-    <t>Okay</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>확인</t>
-  </si>
-  <si>
-    <t>確認</t>
-  </si>
-  <si>
-    <t>確定</t>
-  </si>
-  <si>
-    <t>ACEPTAR</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>DownloadAssetTitle</t>
-  </si>
-  <si>
-    <t>CHECK WI-FI CONNECTION</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="405">
+  <si>
+    <t xml:space="preserve">Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChineseTraditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChineseSimplified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">취소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャンセル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEPTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DownloadAssetTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK WI-FI CONNECTION</t>
   </si>
   <si>
     <r>
@@ -111,93 +106,93 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>연결 확인</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Wi-Fi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>接続確認</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>確認連線</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>WIFI</t>
-    </r>
-  </si>
-  <si>
-    <t>COMPROBAR CONEXIÓN WIFI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>查看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>WiFi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>连接</t>
-    </r>
-  </si>
-  <si>
-    <t>DownloadAssetMessage</t>
-  </si>
-  <si>
-    <t>New data needs to be downloaded to play the game.
+      <t xml:space="preserve">연결 확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wi-Fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">接続確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">確認連線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WIFI</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPROBAR CONEXIÓN WIFI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WiFi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">连接</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DownloadAssetMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New data needs to be downloaded to play the game.
 A &lt;color=#FF8080FF&gt;Wi-Fi connection is recommended.&lt;/color&gt;
 (File size: {0}MB)</t>
   </si>
@@ -210,7 +205,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>게임 진행을 위해 새로운 데이터를 다운로드합니다</t>
+      <t xml:space="preserve">게임 진행을 위해 새로운 데이터를 다운로드합니다</t>
     </r>
     <r>
       <rPr>
@@ -231,17 +226,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>연결을 하시는 것이 좋습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;
+      <t xml:space="preserve">연결을 하시는 것이 좋습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/color&gt;
 (</t>
     </r>
     <r>
@@ -262,7 +257,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>: {0} MB)</t>
+      <t xml:space="preserve">: {0} MB)</t>
     </r>
   </si>
   <si>
@@ -285,27 +280,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#FF8080FF&gt;Wi-Fi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>接続を推奨します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;
+      <t xml:space="preserve">&lt;color=#FF8080FF&gt;Wi-Fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">接続を推奨します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/color&gt;
 (</t>
     </r>
     <r>
@@ -316,17 +311,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ファイル容量：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{0}MB)</t>
+      <t xml:space="preserve">ファイル容量：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}MB)</t>
     </r>
   </si>
   <si>
@@ -349,17 +344,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#FF8080FF&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>建議連線</t>
+      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">建議連線</t>
     </r>
     <r>
       <rPr>
@@ -380,31 +375,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>（文件大小：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{0}MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>Se necesitan descargar datos adicionales para poder jugar.
+      <t xml:space="preserve">（文件大小：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se necesitan descargar datos adicionales para poder jugar.
 &lt;color=#FF8080FF&gt;Se recomienda conexión wifi.&lt;/color&gt;
 (Tamaño del archivo: {0} MB)</t>
   </si>
@@ -428,17 +423,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#FF8080FF&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>建议连接</t>
+      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">建议连接</t>
     </r>
     <r>
       <rPr>
@@ -459,405 +454,405 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>（文件大小：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{0}MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>EULATtitle</t>
-  </si>
-  <si>
-    <t>Terms of Service and Privacy Policy</t>
-  </si>
-  <si>
-    <t>이용 약관 및 개인정보 취급방침</t>
-  </si>
-  <si>
-    <t>利用規約およびプライバシーポリシー</t>
-  </si>
-  <si>
-    <t>使用條款及個人隱私條款</t>
-  </si>
-  <si>
-    <t>Condiciones del servicio y Política de privacidad</t>
-  </si>
-  <si>
-    <t>使用条款及个人信息保护法</t>
-  </si>
-  <si>
-    <t>EULA1Title</t>
-  </si>
-  <si>
-    <t>(Required) Mobile Service Terms of Use (Ads opt-in…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>모바일 서비스 이용 약관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>광고 수신…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>必須</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>サービス利用規約</t>
-    </r>
-  </si>
-  <si>
-    <t>（必須）服務使用條款</t>
-  </si>
-  <si>
-    <t>Condiciones del servicio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>（必须）手机服务使用条款（接收广告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <t>EULA2Title</t>
-  </si>
-  <si>
-    <t>(Required) Collection and Usage of Personal Information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>개인정보 수집 및 이용동의</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>必須</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>プライバシーポリシー</t>
-    </r>
-  </si>
-  <si>
-    <t>（必須）個人隱私條款</t>
-  </si>
-  <si>
-    <t>Política de privacidad</t>
-  </si>
-  <si>
-    <t>（必须）同意收集及使用个人信息</t>
-  </si>
-  <si>
-    <t>EULA3Title</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>必須</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>夜間通知同意</t>
-    </r>
-  </si>
-  <si>
-    <t>（必須）同意夜間接收</t>
-  </si>
-  <si>
-    <t>Aviso de versión nocturna</t>
-  </si>
-  <si>
-    <t>EULAAgreeAll</t>
-  </si>
-  <si>
-    <t>ACCEPT TO ALL</t>
-  </si>
-  <si>
-    <t>모두 동의하기</t>
-  </si>
-  <si>
-    <t>すべて同意</t>
-  </si>
-  <si>
-    <t>全部同意</t>
-  </si>
-  <si>
-    <t>ACEPTAR TODO</t>
-  </si>
-  <si>
-    <t>EULAAgree</t>
-  </si>
-  <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
-    <t>동의하기</t>
-  </si>
-  <si>
-    <t>同意</t>
-  </si>
-  <si>
-    <t>DoNotShowToday</t>
-  </si>
-  <si>
-    <t>Don’t show again today</t>
-  </si>
-  <si>
-    <t>오늘 다시 보지 않기</t>
-  </si>
-  <si>
-    <t>今日は表示しない</t>
-  </si>
-  <si>
-    <t>今日不再查看</t>
-  </si>
-  <si>
-    <t>No volver a mostrar hoy</t>
-  </si>
-  <si>
-    <t>今日不再观看</t>
-  </si>
-  <si>
-    <t>AccountLinkMsg</t>
-  </si>
-  <si>
-    <t>The new account has previous game data linked. Do you want to load the old data?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>새로 로그인한 계정에 연동된 이전 게임 데이터가 있습니다</t>
+      <t xml:space="preserve">（文件大小：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EULATtitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of Service and Privacy Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이용 약관 및 개인정보 취급방침</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用規約およびプライバシーポリシー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用條款及個人隱私條款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condiciones del servicio y Política de privacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用条款及个人信息保护法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EULA1Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Required) Mobile Service Terms of Use (Ads opt-in…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">모바일 서비스 이용 약관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">광고 수신…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">サービス利用規約</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（必須）服務使用條款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condiciones del servicio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（必须）手机服务使用条款（接收广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EULA2Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Required) Collection and Usage of Personal Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">개인정보 수집 및 이용동의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">プライバシーポリシー</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（必須）個人隱私條款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política de privacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（必须）同意收集及使用个人信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EULA3Title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">夜間通知同意</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（必須）同意夜間接收</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviso de versión nocturna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EULAAgreeAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPT TO ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모두 동의하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すべて同意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全部同意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEPTAR TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EULAAgree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동의하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoNotShowToday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t show again today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘 다시 보지 않기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日は表示しない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日不再查看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No volver a mostrar hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日不再观看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLinkMsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The new account has previous game data linked. Do you want to load the old data?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">새로 로그인한 계정에 연동된 이전 게임 데이터가 있습니다</t>
     </r>
     <r>
       <rPr>
@@ -877,7 +872,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>새로 로그인한 계정의 데이터를 불러와서 사용하시겠습니까</t>
+      <t xml:space="preserve">새로 로그인한 계정의 데이터를 불러와서 사용하시겠습니까</t>
     </r>
     <r>
       <rPr>
@@ -891,22 +886,22 @@
     </r>
   </si>
   <si>
-    <t>新たにログインしたアカウントに、連携した既存のゲームがあります。新たにログインしたアカウントからデータを引き継ぎますか？</t>
-  </si>
-  <si>
-    <t>新登入的帳號中已存在以前的遊戲數據，是否載入帳號數據？</t>
-  </si>
-  <si>
-    <t>La nueva cuenta tiene vinculados datos de juego anteriores. ¿Quieres cargar los datos antiguos?</t>
-  </si>
-  <si>
-    <t>新登录的账号中存在以前的游戏数据，是否加载账号数据？</t>
-  </si>
-  <si>
-    <t>AccountLink1</t>
-  </si>
-  <si>
-    <t>No, remove the old data.
+    <t xml:space="preserve">新たにログインしたアカウントに、連携した既存のゲームがあります。新たにログインしたアカウントからデータを引き継ぎますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新登入的帳號中已存在以前的遊戲數據，是否載入帳號數據？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La nueva cuenta tiene vinculados datos de juego anteriores. ¿Quieres cargar los datos antiguos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新登录的账号中存在以前的游戏数据，是否加载账号数据？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLink1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, remove the old data.
 I will use the current data.</t>
   </si>
   <si>
@@ -918,7 +913,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>새로 로그인한 계정의 예전 데이터를 포기하고</t>
+      <t xml:space="preserve">새로 로그인한 계정의 예전 데이터를 포기하고</t>
     </r>
     <r>
       <rPr>
@@ -939,30 +934,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>현재 데이터를 새로 로그인한 계정의 데이터로 연결해서 사용</t>
-    </r>
-  </si>
-  <si>
-    <t>新たにログインしたアカウントの既存データを放棄し、
+      <t xml:space="preserve">현재 데이터를 새로 로그인한 계정의 데이터로 연결해서 사용</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">新たにログインしたアカウントの既存データを放棄し、
 現在のデータを新たにログインしたアカウントのデータとして連携する</t>
   </si>
   <si>
-    <t>刪除新登入帳號的以前數據，
+    <t xml:space="preserve">刪除新登入帳號的以前數據，
 並使用當前數據連線新登入的帳號</t>
   </si>
   <si>
-    <t>No, borra los datos antiguos.
+    <t xml:space="preserve">No, borra los datos antiguos.
 Usaré los datos actuales.</t>
   </si>
   <si>
-    <t>删除新登录账号以前的数据，
+    <t xml:space="preserve">删除新登录账号以前的数据，
 并使用当前数据连接新登录的账号</t>
   </si>
   <si>
-    <t>AccountLink2</t>
-  </si>
-  <si>
-    <t>Yes, load the old data.
+    <t xml:space="preserve">AccountLink2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, load the old data.
 I will forfeit the current data.</t>
   </si>
   <si>
@@ -974,7 +969,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>현재 플레이중이던 데이터를 포기하고</t>
+      <t xml:space="preserve">현재 플레이중이던 데이터를 포기하고</t>
     </r>
     <r>
       <rPr>
@@ -995,399 +990,399 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>새로 로그인한 계정의 예전 데이터를 불러와서 사용</t>
-    </r>
-  </si>
-  <si>
-    <t>現在プレイ中のデータを放棄し、
+      <t xml:space="preserve">새로 로그인한 계정의 예전 데이터를 불러와서 사용</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">現在プレイ中のデータを放棄し、
 新たにログインしたアカウントの既存データを引き継ぐ</t>
   </si>
   <si>
-    <t>刪除當前數據，
+    <t xml:space="preserve">刪除當前數據，
 並載入新登入帳號的以前數據</t>
   </si>
   <si>
-    <t>Sí, carga los datos antiguos.
+    <t xml:space="preserve">Sí, carga los datos antiguos.
 Perderé los datos actuales.</t>
   </si>
   <si>
-    <t>删除当前数据，
+    <t xml:space="preserve">删除当前数据，
 并加载新登录账号以前的数据</t>
   </si>
   <si>
-    <t>AppUpdateTitle</t>
-  </si>
-  <si>
-    <t>REQUIRES AN UPDATE.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>업데이트가 필요합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>アップデートが必要です。</t>
-  </si>
-  <si>
-    <t>需要更新</t>
-  </si>
-  <si>
-    <t>ES NECESARIO ACTUALIZAR.</t>
-  </si>
-  <si>
-    <t>NotNow</t>
-  </si>
-  <si>
-    <t>LATER</t>
-  </si>
-  <si>
-    <t>다음에</t>
-  </si>
-  <si>
-    <t>今はしない</t>
-  </si>
-  <si>
-    <t>下次再說</t>
-  </si>
-  <si>
-    <t>MÁS TARDE</t>
-  </si>
-  <si>
-    <t>下次</t>
-  </si>
-  <si>
-    <t>GoToUpdate</t>
-  </si>
-  <si>
-    <t>UPDATE NOW</t>
-  </si>
-  <si>
-    <t>업데이트 하러가기</t>
-  </si>
-  <si>
-    <t>アップデートする</t>
-  </si>
-  <si>
-    <t>前往更新</t>
-  </si>
-  <si>
-    <t>ACTUALIZAR YA</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>예</t>
-  </si>
-  <si>
-    <t>はい</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>아니오</t>
-  </si>
-  <si>
-    <t>いいえ</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>CompleteDownloadFiles</t>
-  </si>
-  <si>
-    <t>UPDATE COMPLETE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>업데이트가 완료 되었습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>アップデートが完了しました。</t>
-  </si>
-  <si>
-    <t>更新完成。</t>
-  </si>
-  <si>
-    <t>ACTUALIZACIÓN COMPLETA</t>
-  </si>
-  <si>
-    <t>CheckDownloadFiles</t>
-  </si>
-  <si>
-    <t>Checking files to be updated.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>업데이트 할 파일을 확인하고 있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>アップデートするファイルを確認しています。</t>
-  </si>
-  <si>
-    <t>正在確認要更新的文件。</t>
-  </si>
-  <si>
-    <t>Se están comprobando los archivos para actualizar.</t>
-  </si>
-  <si>
-    <t>正在读取更新文件。</t>
-  </si>
-  <si>
-    <t>ErrorDownloadFiles</t>
-  </si>
-  <si>
-    <t>An error has occurred. Checking files to be updated again.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>에러가 발생해서 다시 업데이트 할 파일을 확인하고 있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>エラーが発生しました。再びアップデートするファイルを確認しています。</t>
-  </si>
-  <si>
-    <t>發生錯誤，正在重新確認要更新的文件。</t>
-  </si>
-  <si>
-    <t>Ocurrió un error. Se están comprobando de nuevo los archivos para actualizar.</t>
-  </si>
-  <si>
-    <t>发生错误，重新读取更新文件。</t>
-  </si>
-  <si>
-    <t>Purchasing</t>
-  </si>
-  <si>
-    <t>PURCHASING…</t>
-  </si>
-  <si>
-    <t>구매중…</t>
-  </si>
-  <si>
-    <t>購入中…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>購買中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <t>COMPRANDO...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>购买中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <t>Purchased</t>
-  </si>
-  <si>
-    <t>PURCHASE COMPLETE</t>
-  </si>
-  <si>
-    <t>구매 성공</t>
-  </si>
-  <si>
-    <t>購入成功</t>
-  </si>
-  <si>
-    <t>購買成功</t>
-  </si>
-  <si>
-    <t>COMPRA COMPLETADA</t>
-  </si>
-  <si>
-    <t>购买成功</t>
-  </si>
-  <si>
-    <t>FailedToPurchase</t>
-  </si>
-  <si>
-    <t>FAILED TO PURCHASE</t>
-  </si>
-  <si>
-    <t>구매 실패</t>
-  </si>
-  <si>
-    <t>購入失敗</t>
-  </si>
-  <si>
-    <t>購買失敗</t>
-  </si>
-  <si>
-    <t>NO SE PUDO COMPRAR</t>
-  </si>
-  <si>
-    <t>购买失败</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>CANCEL PURCHASE</t>
-  </si>
-  <si>
-    <t>구매 취소</t>
-  </si>
-  <si>
-    <t>購入キャンセル</t>
-  </si>
-  <si>
-    <t>取消購買</t>
-  </si>
-  <si>
-    <t>CANCELAR COMPRA</t>
-  </si>
-  <si>
-    <t>取消购买</t>
-  </si>
-  <si>
-    <t>VerificationFailed</t>
-  </si>
-  <si>
-    <t>FAILED TO VERIFY RECEIPT</t>
-  </si>
-  <si>
-    <t>영수증 검증 실패</t>
-  </si>
-  <si>
-    <t>領収書検証失敗</t>
-  </si>
-  <si>
-    <t>收據驗證失敗</t>
-  </si>
-  <si>
-    <t>NO SE PUDO VERIFICAR EL RECIBO</t>
-  </si>
-  <si>
-    <t>收据验证失败</t>
-  </si>
-  <si>
-    <t>NameTag</t>
-  </si>
-  <si>
-    <t>Name :</t>
+    <t xml:space="preserve">AppUpdateTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUIRES AN UPDATE.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">업데이트가 필요합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アップデートが必要です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES NECESARIO ACTUALIZAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NotNow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다음에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今はしない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下次再說</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÁS TARDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoToUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE NOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">업데이트 하러가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アップデートする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前往更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZAR YA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÍ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아니오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいえ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompleteDownloadFiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE COMPLETE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">업데이트가 완료 되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アップデートが完了しました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新完成。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZACIÓN COMPLETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CheckDownloadFiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking files to be updated.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">업데이트 할 파일을 확인하고 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">アップデートするファイルを確認しています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正在確認要更新的文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se están comprobando los archivos para actualizar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正在读取更新文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErrorDownloadFiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An error has occurred. Checking files to be updated again.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">에러가 발생해서 다시 업데이트 할 파일을 확인하고 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">エラーが発生しました。再びアップデートするファイルを確認しています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">發生錯誤，正在重新確認要更新的文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocurrió un error. Se están comprobando de nuevo los archivos para actualizar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发生错误，重新读取更新文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURCHASING…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구매중…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入中…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">購買中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRANDO...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">购买中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURCHASE COMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 성공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購買成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRA COMPLETADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FailedToPurchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILED TO PURCHASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 실패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購買失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SE PUDO COMPRAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCEL PURCHASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 취소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入キャンセル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消購買</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELAR COMPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消购买</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerificationFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILED TO VERIFY RECEIPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영수증 검증 실패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">領収書検証失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收據驗證失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SE PUDO VERIFICAR EL RECIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收据验证失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name :</t>
   </si>
   <si>
     <r>
@@ -1412,22 +1407,22 @@
     </r>
   </si>
   <si>
-    <t>名前：</t>
-  </si>
-  <si>
-    <t>名稱：</t>
-  </si>
-  <si>
-    <t>Nombre:</t>
-  </si>
-  <si>
-    <t>名称：</t>
-  </si>
-  <si>
-    <t>DescTag</t>
-  </si>
-  <si>
-    <t>Description :</t>
+    <t xml:space="preserve">名前：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名稱：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名称：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DescTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description :</t>
   </si>
   <si>
     <r>
@@ -1452,22 +1447,22 @@
     </r>
   </si>
   <si>
-    <t>説明：</t>
-  </si>
-  <si>
-    <t>說明：</t>
-  </si>
-  <si>
-    <t>Descripción:</t>
-  </si>
-  <si>
-    <t>说明：</t>
-  </si>
-  <si>
-    <t>PriceTag</t>
-  </si>
-  <si>
-    <t>Price :</t>
+    <t xml:space="preserve">説明：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">說明：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">说明：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PriceTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price :</t>
   </si>
   <si>
     <r>
@@ -1492,43 +1487,43 @@
     </r>
   </si>
   <si>
-    <t>価格：</t>
-  </si>
-  <si>
-    <t>價格：</t>
-  </si>
-  <si>
-    <t>Precio:</t>
-  </si>
-  <si>
-    <t>价格：</t>
-  </si>
-  <si>
-    <t>NetworkError</t>
-  </si>
-  <si>
-    <t>FAILED TO CONNECT TO THE SERVER</t>
-  </si>
-  <si>
-    <t>서버 접속 실패</t>
-  </si>
-  <si>
-    <t>サーバー接続失敗</t>
-  </si>
-  <si>
-    <t>伺服器連線失敗</t>
-  </si>
-  <si>
-    <t>NO SE PUDO CONECTAR AL SERVIDOR</t>
-  </si>
-  <si>
-    <t>服务器连接失败</t>
-  </si>
-  <si>
-    <t>NetworkErrorMessage</t>
-  </si>
-  <si>
-    <t>We’re sorry for the inconvenience.
+    <t xml:space="preserve">価格：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">价格：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetworkError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILED TO CONNECT TO THE SERVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서버 접속 실패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サーバー接続失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伺服器連線失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SE PUDO CONECTAR AL SERVIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务器连接失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetworkErrorMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’re sorry for the inconvenience.
 Please try again later.</t>
   </si>
   <si>
@@ -1540,7 +1535,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>이용에 불편을 드려 죄송합니다</t>
+      <t xml:space="preserve">이용에 불편을 드려 죄송합니다</t>
     </r>
     <r>
       <rPr>
@@ -1561,101 +1556,101 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>잠시 후 다시 시도해 주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>ご迷惑をおかけして申し訳ございません。
+      <t xml:space="preserve">잠시 후 다시 시도해 주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ご迷惑をおかけして申し訳ございません。
 お手数ですが、しばらくしてからもう一度お試しください。</t>
   </si>
   <si>
-    <t>非常抱歉為您帶來不便，
+    <t xml:space="preserve">非常抱歉為您帶來不便，
 請稍後再試。</t>
   </si>
   <si>
-    <t>Sentimos los problemas.
+    <t xml:space="preserve">Sentimos los problemas.
 Inténtalo de nuevo más tarde.</t>
   </si>
   <si>
-    <t>非常抱歉为您带来不便。
+    <t xml:space="preserve">非常抱歉为您带来不便。
 请稍后再试。</t>
   </si>
   <si>
-    <t>Quit</t>
-  </si>
-  <si>
-    <t>QUIT</t>
-  </si>
-  <si>
-    <t>종료</t>
-  </si>
-  <si>
-    <t>終了</t>
-  </si>
-  <si>
-    <t>結束</t>
-  </si>
-  <si>
-    <t>SALIR</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>QuitConfirm</t>
-  </si>
-  <si>
-    <t>Do you want to quit the game?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>게임을 종료하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>ゲームを終了しますか？</t>
-  </si>
-  <si>
-    <t>確定要結束遊戲嗎？</t>
-  </si>
-  <si>
-    <t>¿Quieres salir del juego?</t>
-  </si>
-  <si>
-    <t>确定要结束游戏吗？</t>
-  </si>
-  <si>
-    <t>AccountLinkMsg2</t>
-  </si>
-  <si>
-    <t>Do you want to link the [{0}] account and the current [{1}] account?
+    <t xml:space="preserve">Quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">종료</t>
+  </si>
+  <si>
+    <t xml:space="preserve">終了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuitConfirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to quit the game?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">게임을 종료하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲームを終了しますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確定要結束遊戲嗎？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quieres salir del juego?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确定要结束游戏吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLinkMsg2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to link the [{0}] account and the current [{1}] account?
 (This action cannot be undone.)</t>
   </si>
   <si>
@@ -1697,17 +1692,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>계정을 연결하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?
+      <t xml:space="preserve">계정을 연결하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?
 (</t>
     </r>
     <r>
@@ -1718,17 +1713,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>연결된 계정은 끊을 수 없습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.)</t>
+      <t xml:space="preserve">연결된 계정은 끊을 수 없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.)</t>
     </r>
   </si>
   <si>
@@ -1750,17 +1745,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>アカウントと新たにログインした</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>[{1}]</t>
+      <t xml:space="preserve">アカウントと新たにログインした</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{1}]</t>
     </r>
     <r>
       <rPr>
@@ -1781,84 +1776,84 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>連携したアカウントは解除できません</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>是否連線【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>】帳號和新登入的【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>】帳號？
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">連携したアカウントは解除できません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是否連線【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">】帳號和新登入的【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">】帳號？
 （連線的帳號無法斷開。）</t>
     </r>
   </si>
   <si>
-    <t>¿Quieres vincular la cuenta [{0}] y la cuenta actual [{1}]?
+    <t xml:space="preserve">¿Quieres vincular la cuenta [{0}] y la cuenta actual [{1}]?
 (Esta acción no se puede deshacer).</t>
   </si>
   <si>
@@ -1870,66 +1865,66 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是否连接【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>】账号和新登录的【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>】账号？
+      <t xml:space="preserve">是否连接【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">】账号和新登录的【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">】账号？
 （连接的账号无法断开。）</t>
     </r>
   </si>
   <si>
-    <t>AccountLink3</t>
-  </si>
-  <si>
-    <t>Yes, log in and link the accounts.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>예</t>
+    <t xml:space="preserve">AccountLink3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, log in and link the accounts.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">예</t>
     </r>
     <r>
       <rPr>
@@ -1949,47 +1944,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>로그인하고 계정을 연결하겠습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>はい、ログインしてアカウントに連携します。</t>
-  </si>
-  <si>
-    <t>是，登入並連線帳號。</t>
-  </si>
-  <si>
-    <t>Sí, conectarme y vincular las cuentas.</t>
-  </si>
-  <si>
-    <t>是，登录并连接账号。</t>
-  </si>
-  <si>
-    <t>AccountLink4</t>
-  </si>
-  <si>
-    <t>No, don’t log into the game.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>아니오</t>
+      <t xml:space="preserve">로그인하고 계정을 연결하겠습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">はい、ログインしてアカウントに連携します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是，登入並連線帳號。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, conectarme y vincular las cuentas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是，登录并连接账号。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLink4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, don’t log into the game.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">아니오</t>
     </r>
     <r>
       <rPr>
@@ -2009,87 +2004,87 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>로그인을 취소하겠습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>いいえ、ログインを取り消します。</t>
-  </si>
-  <si>
-    <t>否，取消登入。</t>
-  </si>
-  <si>
-    <t>No, no conectarme al juego.</t>
-  </si>
-  <si>
-    <t>否，取消登录。</t>
-  </si>
-  <si>
-    <t>AccountCannotLogin</t>
-  </si>
-  <si>
-    <t>The account is already linked to another game account. Cannot log in.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>이미 다른 게임 계정에 연결되어 있어서 로그인이 불가능합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>すでに他のゲームアカウントと連携しているため、ログインできませんでした。</t>
-  </si>
-  <si>
-    <t>已連線其他遊戲帳號，無法登入。</t>
-  </si>
-  <si>
-    <t>La cuenta ya está vinculada a otra cuenta de juego. No puedes conectarte.</t>
-  </si>
-  <si>
-    <t>已连接其他游戏账号，无法登录。</t>
-  </si>
-  <si>
-    <t>AccountLogoutMsg</t>
-  </si>
-  <si>
-    <t>You tried to log into the game with an account that is already linked to a different game account. Do you want to log out from the current account and log in with a new account?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
+      <t xml:space="preserve">로그인을 취소하겠습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">いいえ、ログインを取り消します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否，取消登入。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, no conectarme al juego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否，取消登录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountCannotLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The account is already linked to another game account. Cannot log in.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">이미 다른 게임 계정에 연결되어 있어서 로그인이 불가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">すでに他のゲームアカウントと連携しているため、ログインできませんでした。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已連線其他遊戲帳號，無法登入。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cuenta ya está vinculada a otra cuenta de juego. No puedes conectarte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已连接其他游戏账号，无法登录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLogoutMsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You tried to log into the game with an account that is already linked to a different game account. Do you want to log out from the current account and log in with a new account?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
     </r>
     <r>
       <rPr>
@@ -2109,47 +2104,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>현재 계정을 로그아웃하고 새로운 계정으로 로그인 하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインしますか？</t>
-  </si>
-  <si>
-    <t>已嘗試使用已連線其他遊戲的帳號登入，是否退出當前帳號並使用新帳號登入？</t>
-  </si>
-  <si>
-    <t>Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. ¿Deseas desconectarte de la cuenta actual y conectarte con una cuenta nueva?</t>
-  </si>
-  <si>
-    <t>已尝试使用正在连接其他游戏的账号登录，是否退出当前账号并使用新账号登录？</t>
-  </si>
-  <si>
-    <t>AccountLogout1</t>
-  </si>
-  <si>
-    <t>Yes, I want to log in with a new account.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>예</t>
+      <t xml:space="preserve">현재 계정을 로그아웃하고 새로운 계정으로 로그인 하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインしますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已嘗試使用已連線其他遊戲的帳號登入，是否退出當前帳號並使用新帳號登入？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. ¿Deseas desconectarte de la cuenta actual y conectarte con una cuenta nueva?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已尝试使用正在连接其他游戏的账号登录，是否退出当前账号并使用新账号登录？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLogout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I want to log in with a new account.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">예</t>
     </r>
     <r>
       <rPr>
@@ -2169,47 +2164,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>새로운 계정으로 로그인하겠습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>はい、新しいアカウントでログインします。</t>
-  </si>
-  <si>
-    <t>是，使用新帳號登入。</t>
-  </si>
-  <si>
-    <t>Sí, quiero conectarme con una cuenta nueva.</t>
-  </si>
-  <si>
-    <t>是，使用新账号登录。</t>
-  </si>
-  <si>
-    <t>AccountLogoutMsg2</t>
-  </si>
-  <si>
-    <t>You tried to log into the game with an account that is already linked to a different game account. Logging out from the current account and logging in with a new account.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
+      <t xml:space="preserve">새로운 계정으로 로그인하겠습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">はい、新しいアカウントでログインします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是，使用新帳號登入。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, quiero conectarme con una cuenta nueva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是，使用新账号登录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLogoutMsg2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You tried to log into the game with an account that is already linked to a different game account. Logging out from the current account and logging in with a new account.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
     </r>
     <r>
       <rPr>
@@ -2229,68 +2224,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>현재 계정을 로그아웃하고 새로운 계정으로 로그인합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインします。</t>
-  </si>
-  <si>
-    <t>已嘗試使用已連線其他遊戲的帳號登入，即將退出當前帳號並使用新帳號登入。</t>
-  </si>
-  <si>
-    <t>Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. Desconéctate de la cuenta actual y conéctate con una cuenta nueva.</t>
-  </si>
-  <si>
-    <t>已尝试使用正在连接其他游戏的账号登录，即将退出当前账号并使用新账号登录。</t>
-  </si>
-  <si>
-    <t>EULADetail</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>상세보기</t>
-  </si>
-  <si>
-    <t>詳細</t>
-  </si>
-  <si>
-    <t>詳細查看</t>
-  </si>
-  <si>
-    <t>Detalles</t>
-  </si>
-  <si>
-    <t>详细查看</t>
-  </si>
-  <si>
-    <t>AccountLoginIOSSetting</t>
-  </si>
-  <si>
-    <t>Log in to your GameCenter account at "Settings&gt; GameCenter" and try again.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>iOS</t>
+      <t xml:space="preserve">현재 계정을 로그아웃하고 새로운 계정으로 로그인합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已嘗試使用已連線其他遊戲的帳號登入，即將退出當前帳號並使用新帳號登入。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. Desconéctate de la cuenta actual y conéctate con una cuenta nueva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已尝试使用正在连接其他游戏的账号登录，即将退出当前账号并使用新账号登录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EULADetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詳細</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詳細查看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">详细查看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountLoginIOSSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log in to your GameCenter account at "Settings&gt; GameCenter" and try again.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iOS</t>
     </r>
     <r>
       <rPr>
@@ -2310,7 +2305,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>"</t>
+      <t xml:space="preserve">"</t>
     </r>
     <r>
       <rPr>
@@ -2340,81 +2335,81 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>항목에서 계정을 로그인 하신 후 사용하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>iOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>の「設定→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Game Center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>」からアカウントにログインしてからお試しください。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>請在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>iOS“</t>
+      <t xml:space="preserve">항목에서 계정을 로그인 하신 후 사용하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の「設定→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Game Center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">」からアカウントにログインしてからお試しください。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">請在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iOS“</t>
     </r>
     <r>
       <rPr>
@@ -2434,42 +2429,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&gt; GameCenter”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>登入帳號後使用。</t>
-    </r>
-  </si>
-  <si>
-    <t>Conéctate a tu cuenta de Game Center en “Ajustes &gt; Game Center” e inténtalo de nuevo.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>请在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>iOS“</t>
+      <t xml:space="preserve">&gt; GameCenter”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">登入帳號後使用。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Conéctate a tu cuenta de Game Center en “Ajustes &gt; Game Center” e inténtalo de nuevo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">请在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iOS“</t>
     </r>
     <r>
       <rPr>
@@ -2489,45 +2484,45 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&gt; GameCenter”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>登录账号后使用。</t>
-    </r>
-  </si>
-  <si>
-    <t>EmailContent1</t>
-  </si>
-  <si>
-    <t>Please type your inquiry below this line</t>
-  </si>
-  <si>
-    <t>아래에 문의하실 내용을 입력해주세요</t>
-  </si>
-  <si>
-    <t>下記のフォームにお問合せ内容をご記入ください。</t>
-  </si>
-  <si>
-    <t>請在下方輸入諮詢內容</t>
-  </si>
-  <si>
-    <t>Escribe tu consulta tras esta línea</t>
-  </si>
-  <si>
-    <t>请在下方输入要咨询的内容</t>
-  </si>
-  <si>
-    <t>ServerMaintenance</t>
-  </si>
-  <si>
-    <t>This service is under maintenance.
+      <t xml:space="preserve">&gt; GameCenter”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">登录账号后使用。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EmailContent1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please type your inquiry below this line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아래에 문의하실 내용을 입력해주세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下記のフォームにお問合せ内容をご記入ください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請在下方輸入諮詢內容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escribe tu consulta tras esta línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请在下方输入要咨询的内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerMaintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This service is under maintenance.
 We apologize for the inconvenience.</t>
   </si>
   <si>
@@ -2539,7 +2534,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>게임 서비스를 점검 중입니다</t>
+      <t xml:space="preserve">게임 서비스를 점검 중입니다</t>
     </r>
     <r>
       <rPr>
@@ -2560,61 +2555,61 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>이용에 불편을 드려 죄송합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>現在、メンテナンスを行っています。
+      <t xml:space="preserve">이용에 불편을 드려 죄송합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">現在、メンテナンスを行っています。
 ご迷惑をおかけして申し訳ございません。</t>
   </si>
   <si>
-    <t>正在維護遊戲伺服器，
+    <t xml:space="preserve">正在維護遊戲伺服器，
 非常抱歉為您帶來不便。</t>
   </si>
   <si>
-    <t>El servicio está en mantenimiento.
+    <t xml:space="preserve">El servicio está en mantenimiento.
 Sentimos las molestias.</t>
   </si>
   <si>
-    <t>服务器正在维护，
+    <t xml:space="preserve">服务器正在维护，
 很抱歉为您带来不便。</t>
   </si>
   <si>
-    <t>MaintenanceNetworkError</t>
-  </si>
-  <si>
-    <t>Unstable Network Connection</t>
-  </si>
-  <si>
-    <t>네트워크 불안정</t>
-  </si>
-  <si>
-    <t>ネットワークが不安定</t>
-  </si>
-  <si>
-    <t>網路不穩定</t>
-  </si>
-  <si>
-    <t>Problemas de red</t>
-  </si>
-  <si>
-    <t>网络不稳定。</t>
-  </si>
-  <si>
-    <t>MaintenanceNetworkErrorMessage</t>
-  </si>
-  <si>
-    <t>Network connection is unstable.
+    <t xml:space="preserve">MaintenanceNetworkError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unstable Network Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네트워크 불안정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークが不安定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">網路不穩定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemas de red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网络不稳定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaintenanceNetworkErrorMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network connection is unstable.
 Would you like to try connecting again?</t>
   </si>
   <si>
@@ -2626,7 +2621,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>네트워크 접속이 불안정합니다</t>
+      <t xml:space="preserve">네트워크 접속이 불안정합니다</t>
     </r>
     <r>
       <rPr>
@@ -2647,7 +2642,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>접속을 다시 시도해 보시겠습니까</t>
+      <t xml:space="preserve">접속을 다시 시도해 보시겠습니까</t>
     </r>
     <r>
       <rPr>
@@ -2657,68 +2652,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>ネットワーク接続が不安定です。
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワーク接続が不安定です。
 接続をもう一度やり直しますか？</t>
   </si>
   <si>
-    <t>網路不穩定，
+    <t xml:space="preserve">網路不穩定，
 重新嘗試連線？</t>
   </si>
   <si>
-    <t>Hay problemas de red.
+    <t xml:space="preserve">Hay problemas de red.
 ¿Te gustaría intentar conectarte de nuevo?</t>
   </si>
   <si>
-    <t>网络不稳定，尝试重新登录？</t>
-  </si>
-  <si>
-    <t>ServerMaintenanceTitle</t>
-  </si>
-  <si>
-    <t>Under Maintenance</t>
-  </si>
-  <si>
-    <t>서버 점검중</t>
-  </si>
-  <si>
-    <t>メンテナンス中</t>
-  </si>
-  <si>
-    <t>伺服器維護中</t>
-  </si>
-  <si>
-    <t>En mantenimiento</t>
-  </si>
-  <si>
-    <t>服务器维护中</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>닫기</t>
-  </si>
-  <si>
-    <t>閉じる</t>
-  </si>
-  <si>
-    <t>關閉</t>
-  </si>
-  <si>
-    <t>Cerrar</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>OBBFileError</t>
-  </si>
-  <si>
-    <t>OBB File Missing</t>
+    <t xml:space="preserve">网络不稳定，尝试重新登录？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerMaintenanceTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서버 점검중</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メンテナンス中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伺服器維護中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En mantenimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务器维护中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">닫기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">閉じる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">關閉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关闭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBBFileError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBB File Missing</t>
   </si>
   <si>
     <r>
@@ -2739,7 +2734,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>파일 없음</t>
+      <t xml:space="preserve">파일 없음</t>
     </r>
   </si>
   <si>
@@ -2751,7 +2746,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>OBB</t>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -2761,7 +2756,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ファイル</t>
+      <t xml:space="preserve">ファイル</t>
     </r>
     <r>
       <rPr>
@@ -2771,7 +2766,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>無</t>
+      <t xml:space="preserve">無</t>
     </r>
     <r>
       <rPr>
@@ -2781,7 +2776,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>し</t>
+      <t xml:space="preserve">し</t>
     </r>
   </si>
   <si>
@@ -2793,7 +2788,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>無法找到</t>
+      <t xml:space="preserve">無法找到</t>
     </r>
     <r>
       <rPr>
@@ -2803,7 +2798,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>OBB</t>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -2813,49 +2808,49 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>檔案</t>
-    </r>
-  </si>
-  <si>
-    <t>El archivo OBB falta</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>OBB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-  </si>
-  <si>
-    <t>OBBFileErrorMessage</t>
-  </si>
-  <si>
-    <t>Could not find a valid OBB file or the file may be damaged. Please delete the application and reinstall the game.</t>
+      <t xml:space="preserve">檔案</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo OBB falta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">文件</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OBBFileErrorMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not find a valid OBB file or the file may be damaged. Please delete the application and reinstall the game.</t>
   </si>
   <si>
     <r>
@@ -2876,7 +2871,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>파일을 찾을 수 없거나, 파일이 손상되었습니다</t>
+      <t xml:space="preserve">파일을 찾을 수 없거나, 파일이 손상되었습니다</t>
     </r>
     <r>
       <rPr>
@@ -2897,17 +2892,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>게임 앱을 제거후 재설치하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve">게임 앱을 제거후 재설치하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
@@ -2919,7 +2914,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>OBB</t>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -2929,7 +2924,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ファイルを</t>
+      <t xml:space="preserve">ファイルを</t>
     </r>
     <r>
       <rPr>
@@ -2939,7 +2934,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>見</t>
+      <t xml:space="preserve">見</t>
     </r>
     <r>
       <rPr>
@@ -2949,7 +2944,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>つけることができないか</t>
+      <t xml:space="preserve">つけることができないか</t>
     </r>
     <r>
       <rPr>
@@ -2959,7 +2954,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>、</t>
+      <t xml:space="preserve">、</t>
     </r>
     <r>
       <rPr>
@@ -2969,7 +2964,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ファイルが</t>
+      <t xml:space="preserve">ファイルが</t>
     </r>
     <r>
       <rPr>
@@ -2979,7 +2974,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>破損</t>
+      <t xml:space="preserve">破損</t>
     </r>
     <r>
       <rPr>
@@ -2989,7 +2984,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>しています</t>
+      <t xml:space="preserve">しています</t>
     </r>
     <r>
       <rPr>
@@ -3010,7 +3005,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ゲームアプリを</t>
+      <t xml:space="preserve">ゲームアプリを</t>
     </r>
     <r>
       <rPr>
@@ -3020,7 +3015,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>削除</t>
+      <t xml:space="preserve">削除</t>
     </r>
     <r>
       <rPr>
@@ -3030,7 +3025,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>した</t>
+      <t xml:space="preserve">した</t>
     </r>
     <r>
       <rPr>
@@ -3040,7 +3035,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>後、再</t>
+      <t xml:space="preserve">後、再</t>
     </r>
     <r>
       <rPr>
@@ -3050,7 +3045,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>インストールしてください</t>
+      <t xml:space="preserve">インストールしてください</t>
     </r>
     <r>
       <rPr>
@@ -3060,7 +3055,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>。</t>
+      <t xml:space="preserve">。</t>
     </r>
   </si>
   <si>
@@ -3072,7 +3067,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>無法找到</t>
+      <t xml:space="preserve">無法找到</t>
     </r>
     <r>
       <rPr>
@@ -3082,7 +3077,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>OBB</t>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -3092,7 +3087,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>檔案</t>
+      <t xml:space="preserve">檔案</t>
     </r>
     <r>
       <rPr>
@@ -3112,7 +3107,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>或該檔案已損失</t>
+      <t xml:space="preserve">或該檔案已損失</t>
     </r>
     <r>
       <rPr>
@@ -3132,7 +3127,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>請刪除遊戲後重新安裝</t>
+      <t xml:space="preserve">請刪除遊戲後重新安裝</t>
     </r>
     <r>
       <rPr>
@@ -3142,50 +3137,50 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>No se puede encontrar un archivo OBB valido  o el archivo podría estar dañado. Por favor, borra la aplicación  y reinstala el juego.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>找不到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>OBB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>文件，或已损坏。
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede encontrar un archivo OBB valido  o el archivo podría estar dañado. Por favor, borra la aplicación  y reinstala el juego.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">找不到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">文件，或已损坏。
 请删除游戏后重新安装。</t>
     </r>
   </si>
   <si>
-    <t>OBBFileDownloadMessage</t>
-  </si>
-  <si>
-    <t>Re-downloading OBB File to proceed the game.
+    <t xml:space="preserve">OBBFileDownloadMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-downloading OBB File to proceed the game.
  &lt;color=#FF8080FF&gt;WIFI Connection recomended&lt;/color&gt;
 (File Size : {0} MB)</t>
   </si>
@@ -3198,7 +3193,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>게임 진행을 위해 OBB 파일을 다시 다운로드합니다</t>
+      <t xml:space="preserve">게임 진행을 위해 OBB 파일을 다시 다운로드합니다</t>
     </r>
     <r>
       <rPr>
@@ -3219,17 +3214,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>연결을 하시는 것이 좋습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;
+      <t xml:space="preserve">연결을 하시는 것이 좋습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/color&gt;
 (</t>
     </r>
     <r>
@@ -3250,7 +3245,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>: {0} MB)</t>
+      <t xml:space="preserve">: {0} MB)</t>
     </r>
   </si>
   <si>
@@ -3262,7 +3257,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ゲームの</t>
+      <t xml:space="preserve">ゲームの</t>
     </r>
     <r>
       <rPr>
@@ -3272,7 +3267,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>進行</t>
+      <t xml:space="preserve">進行</t>
     </r>
     <r>
       <rPr>
@@ -3282,7 +3277,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>のため</t>
+      <t xml:space="preserve">のため</t>
     </r>
     <r>
       <rPr>
@@ -3292,7 +3287,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>、</t>
+      <t xml:space="preserve">、</t>
     </r>
     <r>
       <rPr>
@@ -3302,7 +3297,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>OBB</t>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -3312,7 +3307,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ファイルを</t>
+      <t xml:space="preserve">ファイルを</t>
     </r>
     <r>
       <rPr>
@@ -3322,7 +3317,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>再度</t>
+      <t xml:space="preserve">再度</t>
     </r>
     <r>
       <rPr>
@@ -3332,7 +3327,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ダウンロードします</t>
+      <t xml:space="preserve">ダウンロードします</t>
     </r>
     <r>
       <rPr>
@@ -3342,7 +3337,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>。</t>
+      <t xml:space="preserve">。</t>
     </r>
     <r>
       <rPr>
@@ -3352,7 +3347,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;color=</t>
+      <t xml:space="preserve">&lt;color=</t>
     </r>
     <r>
       <rPr>
@@ -3362,7 +3357,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>＃</t>
+      <t xml:space="preserve">＃</t>
     </r>
     <r>
       <rPr>
@@ -3372,7 +3367,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>FF8080FF&gt; WIFI</t>
+      <t xml:space="preserve">FF8080FF&gt; WIFI</t>
     </r>
     <r>
       <rPr>
@@ -3382,7 +3377,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>環境</t>
+      <t xml:space="preserve">環境</t>
     </r>
     <r>
       <rPr>
@@ -3392,7 +3387,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>でのダウンロードをお勧めします</t>
+      <t xml:space="preserve">でのダウンロードをお勧めします</t>
     </r>
     <r>
       <rPr>
@@ -3402,7 +3397,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>。</t>
+      <t xml:space="preserve">。</t>
     </r>
     <r>
       <rPr>
@@ -3412,7 +3407,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;/ color&gt;</t>
+      <t xml:space="preserve">&lt;/ color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -3422,7 +3417,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>（</t>
+      <t xml:space="preserve">（</t>
     </r>
     <r>
       <rPr>
@@ -3432,7 +3427,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ファイルサイズ</t>
+      <t xml:space="preserve">ファイルサイズ</t>
     </r>
     <r>
       <rPr>
@@ -3442,7 +3437,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>：</t>
+      <t xml:space="preserve">：</t>
     </r>
     <r>
       <rPr>
@@ -3452,7 +3447,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>{0} MB</t>
+      <t xml:space="preserve">{0} MB</t>
     </r>
     <r>
       <rPr>
@@ -3462,7 +3457,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>）</t>
+      <t xml:space="preserve">）</t>
     </r>
   </si>
   <si>
@@ -3474,7 +3469,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>為了進行遊戲從新下載</t>
+      <t xml:space="preserve">為了進行遊戲從新下載</t>
     </r>
     <r>
       <rPr>
@@ -3484,7 +3479,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>OBB</t>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -3494,7 +3489,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>檔案</t>
+      <t xml:space="preserve">檔案</t>
     </r>
     <r>
       <rPr>
@@ -3504,7 +3499,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>. &lt;color=#FF8080FF&gt;</t>
+      <t xml:space="preserve">. &lt;color=#FF8080FF&gt;</t>
     </r>
     <r>
       <rPr>
@@ -3514,7 +3509,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>請盡量使用</t>
+      <t xml:space="preserve">請盡量使用</t>
     </r>
     <r>
       <rPr>
@@ -3524,7 +3519,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>Wifi</t>
+      <t xml:space="preserve">Wifi</t>
     </r>
     <r>
       <rPr>
@@ -3534,7 +3529,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>網路下載</t>
+      <t xml:space="preserve">網路下載</t>
     </r>
     <r>
       <rPr>
@@ -3544,7 +3539,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;/color&gt; (</t>
+      <t xml:space="preserve">&lt;/color&gt; (</t>
     </r>
     <r>
       <rPr>
@@ -3554,7 +3549,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>數據包大小</t>
+      <t xml:space="preserve">數據包大小</t>
     </r>
     <r>
       <rPr>
@@ -3568,28 +3563,28 @@
     </r>
   </si>
   <si>
-    <t>Se descargara de nuevo el archivo OBB para continuar el juego. &lt;color=#FF8080FF&gt;Se recomienda el uso de una red wifi.&lt;/color&gt; (Tamaño del archivo: {0} MB).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>为了正常游戏，需要重新下载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>OBB</t>
+    <t xml:space="preserve">Se descargara de nuevo el archivo OBB para continuar el juego. &lt;color=#FF8080FF&gt;Se recomienda el uso de una red wifi.&lt;/color&gt; (Tamaño del archivo: {0} MB).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">为了正常游戏，需要重新下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OBB</t>
     </r>
     <r>
       <rPr>
@@ -3610,17 +3605,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#FF8080FF&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>建议连接</t>
+      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">建议连接</t>
     </r>
     <r>
       <rPr>
@@ -3641,55 +3636,55 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>（文件大小：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>{0}MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>AppPermissionsTitle1</t>
-  </si>
-  <si>
-    <t>Access Permission for App Usage</t>
-  </si>
-  <si>
-    <t>원활한 게임 이용을 위한 접근 권한 안내</t>
-  </si>
-  <si>
-    <t>快適なゲームプレイのためのアクセス権限のご案内</t>
-  </si>
-  <si>
-    <t>為保障流暢的遊戲環境所需訪問許可權介紹</t>
-  </si>
-  <si>
-    <t>PERMISO DE ACCESO PARA EL USO DEL JUEGO</t>
-  </si>
-  <si>
-    <t>为保障流畅的游戏环境所需访问权限介绍</t>
-  </si>
-  <si>
-    <t>AppPermissionsInfo1</t>
-  </si>
-  <si>
-    <t>[Photos, media, and files]
+      <t xml:space="preserve">（文件大小：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AppPermissionsTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Permission for App Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">원활한 게임 이용을 위한 접근 권한 안내</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快適なゲームプレイのためのアクセス権限のご案内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">為保障流暢的遊戲環境所需訪問許可權介紹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERMISO DE ACCESO PARA EL USO DEL JUEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为保障流畅的游戏环境所需访问权限介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppPermissionsInfo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Photos, media, and files]
 This access permission is required and allows us to store the app on your external memory. 
 Giving permission will enable us to install the game on the external storage 
 if you do not have enough space on your internal storage. 
@@ -3707,17 +3702,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>기기 사진</t>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">기기 사진</t>
     </r>
     <r>
       <rPr>
@@ -3737,7 +3732,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>미디어</t>
+      <t xml:space="preserve">미디어</t>
     </r>
     <r>
       <rPr>
@@ -3757,7 +3752,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>파일 엑세스</t>
+      <t xml:space="preserve">파일 엑세스</t>
     </r>
     <r>
       <rPr>
@@ -3778,7 +3773,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>이 권한은 외장 메모리에 게임을 저장하기 위해 필요한 권한입니다</t>
+      <t xml:space="preserve">이 권한은 외장 메모리에 게임을 저장하기 위해 필요한 권한입니다</t>
     </r>
     <r>
       <rPr>
@@ -3799,7 +3794,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>권한을 허용하면 단말기 용량 부족 시 외장 메모리로
+      <t xml:space="preserve">권한을 허용하면 단말기 용량 부족 시 외장 메모리로
 게임을 설치하실 수 있습니다</t>
     </r>
     <r>
@@ -3810,7 +3805,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>. 
+      <t xml:space="preserve">. 
 (</t>
     </r>
     <r>
@@ -3821,7 +3816,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>고객님의 사진과 파일에는 접근하지 않습니다</t>
+      <t xml:space="preserve">고객님의 사진과 파일에는 접근하지 않습니다</t>
     </r>
     <r>
       <rPr>
@@ -3842,7 +3837,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>위 권한은 명시된 사유 외 다른 목적으로 사용되지 않으며</t>
+      <t xml:space="preserve">위 권한은 명시된 사유 외 다른 목적으로 사용되지 않으며</t>
     </r>
     <r>
       <rPr>
@@ -3862,7 +3857,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>접근 권한 거절 시
+      <t xml:space="preserve">접근 권한 거절 시
 더 이상 진행이 불가합니다</t>
     </r>
     <r>
@@ -3883,39 +3878,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>게임 이용을 위해 접근 권한을 허용해 주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>端末、</t>
+      <t xml:space="preserve">게임 이용을 위해 접근 권한을 허용해 주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">端末、</t>
     </r>
     <r>
       <rPr>
@@ -3925,7 +3920,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>写真</t>
+      <t xml:space="preserve">写真</t>
     </r>
     <r>
       <rPr>
@@ -3935,7 +3930,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>、メディア、ファイルアクセス]
+      <t xml:space="preserve">、メディア、ファイルアクセス]
 この</t>
     </r>
     <r>
@@ -3946,7 +3941,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>権</t>
+      <t xml:space="preserve">権</t>
     </r>
     <r>
       <rPr>
@@ -3956,7 +3951,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>限は、外付けメモリにゲ</t>
+      <t xml:space="preserve">限は、外付けメモリにゲ</t>
     </r>
     <r>
       <rPr>
@@ -3966,7 +3961,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ー</t>
+      <t xml:space="preserve">ー</t>
     </r>
     <r>
       <rPr>
@@ -3976,7 +3971,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>ムを保存するために必要な</t>
+      <t xml:space="preserve">ムを保存するために必要な</t>
     </r>
     <r>
       <rPr>
@@ -3986,7 +3981,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>権</t>
+      <t xml:space="preserve">権</t>
     </r>
     <r>
       <rPr>
@@ -4007,7 +4002,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>権</t>
+      <t xml:space="preserve">権</t>
     </r>
     <r>
       <rPr>
@@ -4017,7 +4012,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>限を許容すると、端末が容量不足になった場合に外付けメモリに
+      <t xml:space="preserve">限を許容すると、端末が容量不足になった場合に外付けメモリに
 ゲ</t>
     </r>
     <r>
@@ -4028,7 +4023,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ー</t>
+      <t xml:space="preserve">ー</t>
     </r>
     <r>
       <rPr>
@@ -4038,7 +4033,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>ムをインスト</t>
+      <t xml:space="preserve">ムをインスト</t>
     </r>
     <r>
       <rPr>
@@ -4048,7 +4043,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ー</t>
+      <t xml:space="preserve">ー</t>
     </r>
     <r>
       <rPr>
@@ -4058,7 +4053,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>ルすることができます。
+      <t xml:space="preserve">ルすることができます。
 (</t>
     </r>
     <r>
@@ -4069,7 +4064,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>写真</t>
+      <t xml:space="preserve">写真</t>
     </r>
     <r>
       <rPr>
@@ -4079,7 +4074,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>やファイルにはアクセスしません)
+      <t xml:space="preserve">やファイルにはアクセスしません)
 上記の</t>
     </r>
     <r>
@@ -4090,7 +4085,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>権</t>
+      <t xml:space="preserve">権</t>
     </r>
     <r>
       <rPr>
@@ -4100,7 +4095,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>限は、明示された事由以外の目的に使用されることはなく、
+      <t xml:space="preserve">限は、明示された事由以外の目的に使用されることはなく、
 アクセス</t>
     </r>
     <r>
@@ -4111,7 +4106,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>権</t>
+      <t xml:space="preserve">権</t>
     </r>
     <r>
       <rPr>
@@ -4121,7 +4116,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>限を拒否した場合はそれ以上はプレイができなくなります。
+      <t xml:space="preserve">限を拒否した場合はそれ以上はプレイができなくなります。
 ゲ</t>
     </r>
     <r>
@@ -4132,7 +4127,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ー</t>
+      <t xml:space="preserve">ー</t>
     </r>
     <r>
       <rPr>
@@ -4142,7 +4137,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>ムプレイのためにアクセス</t>
+      <t xml:space="preserve">ムプレイのためにアクセス</t>
     </r>
     <r>
       <rPr>
@@ -4152,7 +4147,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>権</t>
+      <t xml:space="preserve">権</t>
     </r>
     <r>
       <rPr>
@@ -4162,11 +4157,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>限を許容してください。</t>
-    </r>
-  </si>
-  <si>
-    <t>【訪問設備照片、視頻、文件】
+      <t xml:space="preserve">限を許容してください。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">【訪問設備照片、視頻、文件】
 在移動硬碟儲存遊戲時所需許可權。
 允許許可權後，設備硬碟容量不足時，將安裝在
 移動硬碟。
@@ -4175,7 +4170,7 @@
 將無法繼續，請允許訪問許可權。</t>
   </si>
   <si>
-    <t>[Imágenes, multimedia y archivos]
+    <t xml:space="preserve">[Imágenes, multimedia y archivos]
 Este permiso de acceso es obligatorio y nos permite almacenar la aplicación en su memoria externa.
 Dar permiso nos permitirá instalar el juego en el almacenamiento externo
 Si no tiene suficiente espacio en su almacenamiento interno.
@@ -4185,7 +4180,7 @@
 Otorgue el permiso de acceso requerido para poder utilizar la aplicación.</t>
   </si>
   <si>
-    <t>【访问设备照片、视频、文件】
+    <t xml:space="preserve">【访问设备照片、视频、文件】
 在移动硬盘保存游戏时所需权限。
 允许权限后，设备硬盘容量不足时，将安装在
 移动硬盘。
@@ -4194,58 +4189,58 @@
 将无法继续，请允许访问权限。</t>
   </si>
   <si>
-    <t>AppPermissionsTitle2</t>
-  </si>
-  <si>
-    <t>Resetting Access Permission for App Usage</t>
-  </si>
-  <si>
-    <t>원활한 게임 이용을 위한 접근 권한 재 설정 안내</t>
-  </si>
-  <si>
-    <t>快適なゲームプレイのためのアクセス権限再設定のご案内</t>
-  </si>
-  <si>
-    <t>為保障流暢的遊戲環境所需訪問許可權重新設定相關介紹</t>
-  </si>
-  <si>
-    <t>REINICIAR EL PERMISO DE ACCESO PARA UN USO CONTINUO DEL JUEGO</t>
-  </si>
-  <si>
-    <t>为保障流畅的游戏环境所需访问权限重新设定相关介绍</t>
-  </si>
-  <si>
-    <t>AppPermissionsInfo2</t>
-  </si>
-  <si>
-    <t>This is a required authority to use the game.
+    <t xml:space="preserve">AppPermissionsTitle2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resetting Access Permission for App Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">원활한 게임 이용을 위한 접근 권한 재 설정 안내</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快適なゲームプレイのためのアクセス権限再設定のご案内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">為保障流暢的遊戲環境所需訪問許可權重新設定相關介紹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINICIAR EL PERMISO DE ACCESO PARA UN USO CONTINUO DEL JUEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为保障流畅的游戏环境所需访问权限重新设定相关介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppPermissionsInfo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a required authority to use the game.
 You'll be moved to the app settings screen. Please allow the usage of the storage space.</t>
   </si>
   <si>
-    <t>게임 이용에 필요한 필수 권한입니다.
+    <t xml:space="preserve">게임 이용에 필요한 필수 권한입니다.
 앱 설정 화면으로 이동합니다. "저장공간"권한을 허용해 주시기 바랍니다.</t>
   </si>
   <si>
-    <t>ゲーム利用に必要な必須権限です。 
+    <t xml:space="preserve">ゲーム利用に必要な必須権限です。 
 アプリ設定画面に移動します。 「保存空間」の権限を許可してください。</t>
   </si>
   <si>
-    <t>遊玩遊戲時必要的權限. 
+    <t xml:space="preserve">遊玩遊戲時必要的權限. 
 自動移動到App設定頁面. 請允許"儲存空間"的權限.</t>
   </si>
   <si>
-    <t>Para usar el juego se requiere esta autoridad. 
+    <t xml:space="preserve">Para usar el juego se requiere esta autoridad. 
 Ir a la pantalla de configuración de la aplicación. Permitir el uso del espacio de almacenamiento.</t>
   </si>
   <si>
-    <t>进行游戏必备权限。
+    <t xml:space="preserve">进行游戏必备权限。
 返回设置页面。点击允许访问“储存空间”权限</t>
   </si>
   <si>
-    <t>LoginErrorMessage2</t>
-  </si>
-  <si>
-    <t>A temporary error has occurred while logging in. Please try again later.</t>
+    <t xml:space="preserve">LoginErrorMessage2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A temporary error has occurred while logging in. Please try again later.</t>
   </si>
   <si>
     <r>
@@ -4254,7 +4249,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>로그인 과정에서 일시적인 오류가 발생하였습니다</t>
+      <t xml:space="preserve">로그인 과정에서 일시적인 오류가 발생하였습니다</t>
     </r>
     <r>
       <rPr>
@@ -4271,7 +4266,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>잠시 후 다시 시도해주세요</t>
+      <t xml:space="preserve">잠시 후 다시 시도해주세요</t>
     </r>
     <r>
       <rPr>
@@ -4280,99 +4275,71 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>ログイン中、一時的なエラーが発生しました。しばらくしてからもう一度お試しください。</t>
-  </si>
-  <si>
-    <t>登入時發生暫時性錯誤。請稍候再試</t>
-  </si>
-  <si>
-    <t>Se produjo un error temporal en el proceso de inicio de sesión. Intente de nuevo más tarde.</t>
-  </si>
-  <si>
-    <t>登录过程中发生异常，请稍后再试。</t>
-  </si>
-  <si>
-    <t>LoginErrorTitle</t>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン中、一時的なエラーが発生しました。しばらくしてからもう一度お試しください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登入時發生暫時性錯誤。請稍候再試</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se produjo un error temporal en el proceso de inicio de sesión. Intente de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录过程中发生异常，请稍后再试。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginErrorTitle</t>
   </si>
   <si>
     <t xml:space="preserve">LOGIN </t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>登入</t>
-  </si>
-  <si>
-    <t>CONECTAR</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>LoginErrorMessage1</t>
-  </si>
-  <si>
-    <t>Failed to log in.</t>
-  </si>
-  <si>
-    <t>로그인에 실패했습니다.</t>
-  </si>
-  <si>
-    <t>ログインに失敗しました。</t>
-  </si>
-  <si>
-    <t>登入失敗。</t>
-  </si>
-  <si>
-    <t>No se ha podido iniciar sesión.</t>
-  </si>
-  <si>
-    <t>登录失败。</t>
-  </si>
-  <si>
-    <t>Please Touch the screen to Play</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartMessage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게임을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 시작하기 위해 화면을 터치</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面をタッチしてください</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>请触摸屏幕</t>
+    <t xml:space="preserve">로그인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginErrorMessage1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to log in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인에 실패했습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインに失敗しました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登入失敗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se ha podido iniciar sesión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录失败。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -4380,6 +4347,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4495,26 +4477,6 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4537,7 +4499,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -4545,425 +4507,183 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="76.25" customWidth="1"/>
-    <col min="3" max="3" width="77.5" customWidth="1"/>
-    <col min="4" max="4" width="59.5" customWidth="1"/>
-    <col min="5" max="5" width="58.625" customWidth="1"/>
-    <col min="6" max="6" width="60.875" customWidth="1"/>
-    <col min="7" max="7" width="68.25" customWidth="1"/>
-    <col min="8" max="1025" width="10.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4975,18 +4695,18 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4998,37 +4718,37 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.25">
+    <row r="5" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -5051,11 +4771,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5067,87 +4787,87 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5159,18 +4879,18 @@
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5182,18 +4902,18 @@
       <c r="E11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5205,18 +4925,18 @@
       <c r="E12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5228,14 +4948,14 @@
       <c r="E13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="44.25">
+    <row r="14" customFormat="false" ht="193.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -5258,7 +4978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5">
+    <row r="15" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
@@ -5281,11 +5001,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5297,18 +5017,18 @@
       <c r="E16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5320,18 +5040,18 @@
       <c r="E17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>108</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5343,18 +5063,18 @@
       <c r="E18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5366,18 +5086,18 @@
       <c r="E19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5389,18 +5109,18 @@
       <c r="E20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>123</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5412,18 +5132,18 @@
       <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5435,18 +5155,18 @@
       <c r="E22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>138</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5458,18 +5178,18 @@
       <c r="E23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5481,18 +5201,18 @@
       <c r="E24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>152</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5504,18 +5224,18 @@
       <c r="E25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5527,18 +5247,18 @@
       <c r="E26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5550,18 +5270,18 @@
       <c r="E27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>173</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5573,18 +5293,18 @@
       <c r="E28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>180</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5596,18 +5316,18 @@
       <c r="E29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5619,18 +5339,18 @@
       <c r="E30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>194</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5642,18 +5362,18 @@
       <c r="E31" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>201</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -5665,15 +5385,15 @@
       <c r="E32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>208</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="161.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>210</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -5695,11 +5415,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5711,18 +5431,18 @@
       <c r="E34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="0" t="s">
         <v>222</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5734,15 +5454,15 @@
       <c r="E35" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="0" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45.75">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="177.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>231</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5764,11 +5484,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
+    <row r="37" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>239</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -5780,18 +5500,18 @@
       <c r="E37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="0" t="s">
         <v>243</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>246</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5803,18 +5523,18 @@
       <c r="E38" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>250</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>253</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -5826,18 +5546,18 @@
       <c r="E39" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>257</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
+    <row r="40" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>260</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5849,18 +5569,18 @@
       <c r="E40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>264</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>267</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5872,18 +5592,18 @@
       <c r="E41" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="0" t="s">
         <v>271</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+    <row r="42" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>274</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5895,18 +5615,18 @@
       <c r="E42" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="0" t="s">
         <v>278</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>281</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5918,41 +5638,41 @@
       <c r="E43" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="0" t="s">
         <v>285</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+    <row r="44" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>290</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="0" t="s">
         <v>292</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>295</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5964,15 +5684,15 @@
       <c r="E45" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="0" t="s">
         <v>299</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="31.5">
-      <c r="A46" t="s">
+    <row r="46" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>301</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -5994,11 +5714,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>309</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -6010,15 +5730,15 @@
       <c r="E47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="0" t="s">
         <v>313</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="34.5">
-      <c r="A48" t="s">
+    <row r="48" customFormat="false" ht="97.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>315</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6040,11 +5760,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>323</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6056,14 +5776,14 @@
       <c r="E49" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="0" t="s">
         <v>327</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1">
+    <row r="50" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>329</v>
       </c>
@@ -6086,7 +5806,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1">
+    <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>335</v>
       </c>
@@ -6109,7 +5829,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="58.5">
+    <row r="52" customFormat="false" ht="187.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>342</v>
       </c>
@@ -6132,7 +5852,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="58.5">
+    <row r="53" customFormat="false" ht="289.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>349</v>
       </c>
@@ -6155,11 +5875,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>357</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -6171,14 +5891,14 @@
       <c r="E54" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="0" t="s">
         <v>361</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="241.5">
+    <row r="55" customFormat="false" ht="774" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>363</v>
       </c>
@@ -6201,11 +5921,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>371</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -6217,14 +5937,14 @@
       <c r="E56" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>375</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="63">
+    <row r="57" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>377</v>
       </c>
@@ -6247,8 +5967,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.25">
-      <c r="A58" t="s">
+    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>384</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -6270,11 +5990,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.25">
-      <c r="A59" t="s">
+    <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>392</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -6293,8 +6013,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25">
-      <c r="A60" t="s">
+    <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>398</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -6316,26 +6036,14 @@
         <v>404</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="19.5">
-      <c r="A61" t="s">
-        <v>406</v>
-      </c>
-      <c r="B61" t="s">
-        <v>405</v>
-      </c>
-      <c r="C61" t="s">
-        <v>407</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E61" t="s">
-        <v>409</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Assets/Haegin/Text/Editor/TextTable.xlsx
+++ b/Assets/Haegin/Text/Editor/TextTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="891">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
@@ -43,6 +43,21 @@
     <t xml:space="preserve">ChineseSimplified</t>
   </si>
   <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnamese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancel</t>
   </si>
   <si>
@@ -61,6 +76,21 @@
     <t xml:space="preserve">CANCELAR</t>
   </si>
   <si>
+    <t xml:space="preserve">ABBRECHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNULER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HỦY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยกเลิก</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okay</t>
   </si>
   <si>
@@ -82,6 +112,9 @@
     <t xml:space="preserve">确认</t>
   </si>
   <si>
+    <t xml:space="preserve">ตกลง</t>
+  </si>
+  <si>
     <t xml:space="preserve">DownloadAssetTitle</t>
   </si>
   <si>
@@ -186,6 +219,39 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">连接</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WI-FI-VERBINDUNG PRÜFEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÉRIFIER LA CONNECTION WI-FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERIKSA SAMBUNGAN WI-FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÃY KIỂM TRA KẾT NỐI WI-FI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ตรวจสอบการเชื่อมต่อ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wi-Fi</t>
     </r>
   </si>
   <si>
@@ -478,6 +544,87 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Neue Daten werden heruntergeladen.
+&lt;color=#FF8080FF&gt;WiFi-Verbindung empfohlen
+&lt;/color&gt;(Dateigröße: {0} MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De nouvelles données vont être téléchargées pour le déroulement du jeu.
+Une &lt;color=#FF8080FF&gt;connexion Wi-Fi est recommandée.&lt;/color&gt;
+(Taille des données : {0} MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data baru perlu diunduh untuk memainkan game.
+ Disarankan untuk menggunakan &lt;color=#FF8080FF&gt;sambungan Wi-Fi.&lt;/color&gt;
+(Ukuran file: {0}MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần tải dữ liệu mới xuống để chơi trò chơi.
+ Kết nối &lt;color=#FF8080FF&gt;Wi-Fi được khuyên dùng.&lt;/color&gt;
+ (Kích cỡ tệp: {0}MB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ต้องดาวน์โหลดข้อมูลใหม่จึงจะสามารถเล่นเกมได้
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ขอแนะนำให้เชื่อมต่อ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wi-Fi&lt;/color&gt;
+ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ขนาดไฟล์</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: {0}MB)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">EULATtitle</t>
   </si>
   <si>
@@ -499,6 +646,21 @@
     <t xml:space="preserve">使用条款及个人信息保护法</t>
   </si>
   <si>
+    <t xml:space="preserve">Nutzungsbedingungen und Datenschutzrichtlinie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions de service et politique de confidentialité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketentuan Layanan dan Kebijakan Privasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điều khoản Dịch vụ và Chính sách Bảo mật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้อตกลงการให้บริการและนโยบายความเป็นส่วนตัว</t>
+  </si>
+  <si>
     <t xml:space="preserve">EULA1Title</t>
   </si>
   <si>
@@ -637,6 +799,58 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">(Erforderlich) Nutzungsbedingungen mobile Dienste (Opt-Out für Werbung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Requis) Acceptation des conditions d'utilisation du service sur mobile (Exclusion des pubs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diperlukan) Ketentuan Penggunaan Layanan Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bắt buộc) Điều khoản Sử dụng Dịch vụ Di động</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">จำเป็น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ข้อตกลงการใช้บริการมือถือ</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">EULA2Title</t>
   </si>
   <si>
@@ -736,6 +950,58 @@
     <t xml:space="preserve">（必须）同意收集及使用个人信息</t>
   </si>
   <si>
+    <t xml:space="preserve">(Erforderlich) Erhebung und Verwendung personenbezogener Daten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Requis) Acception de la collecte et de l'utilisation des données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diperlukan) Pengumpulan dan Penggunaan Informasi Pribadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bắt buộc) Thu thập và Sử dụng Thông tin Cá nhân</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">จำเป็น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">การรวบรวมและการใช้ข้อมูลส่วนบุคคล</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">EULA3Title</t>
   </si>
   <si>
@@ -805,6 +1071,21 @@
     <t xml:space="preserve">ACEPTAR TODO</t>
   </si>
   <si>
+    <t xml:space="preserve">ALLE ZUSTIMMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUT ACCEPTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERIMA SEMUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHẤP NHẬN TẤT CẢ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยอมรับทั้งหมด</t>
+  </si>
+  <si>
     <t xml:space="preserve">EULAAgree</t>
   </si>
   <si>
@@ -817,6 +1098,21 @@
     <t xml:space="preserve">同意</t>
   </si>
   <si>
+    <t xml:space="preserve">ZUSTIMMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHẤP NHẬN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยอมรับ</t>
+  </si>
+  <si>
     <t xml:space="preserve">DoNotShowToday</t>
   </si>
   <si>
@@ -838,6 +1134,21 @@
     <t xml:space="preserve">今日不再观看</t>
   </si>
   <si>
+    <t xml:space="preserve">Heute nicht erneut anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne plus voir aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jangan tampilkan lagi hari ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đừng cho tôi xem lại ngày hôm nay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่ต้องแสดงอีกในวันนี้</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLinkMsg</t>
   </si>
   <si>
@@ -896,6 +1207,25 @@
   </si>
   <si>
     <t xml:space="preserve">新登录的账号中存在以前的游戏数据，是否加载账号数据？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für dieses neue Konto existieren bereits Spieldaten.
+Möchtest du diese Spieldaten laden?
+Wenn du die (nicht gespeicherten) Spieldaten des Gast-Kontos löscht, kann dein Fortschritt nicht wiederhergestellt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des données de jeu antérieures à cette connexion existent.
+Souhaitez-vous charger ces données existantes ?
+Si vous supprimez vos données invitées (non sauvegardées), votre progression de jeu ne pourra être restaurée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akun yang baru telah ditautkan dengan data game sebelumnya. Ingin memuat data yang lama?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài khoản mới được liên kết với dữ liệu chơi trước đó. Bạn có muốn tải dữ liệu cũ không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บัญชีใหม่เชื่อมต่ออยู่กับข้อมูลการเล่นครั้งก่อน คุณต้องการโหลดข้อมูลเก่าหรือไม่</t>
   </si>
   <si>
     <t xml:space="preserve">AccountLink1</t>
@@ -954,6 +1284,26 @@
 并使用当前数据连接新登录的账号</t>
   </si>
   <si>
+    <t xml:space="preserve">[Nein] Alte Daten löschen
+Aktuelle Daten mit dem neu angemeldeten Konto verbinden und verwenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non, abandonner les anciennes données de jeu,
+et lier les données du jeu en cours au compte nouvellement connecté.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak, hapus data lama.
+ Saya akan menggunakan data saat ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không, xóa dữ liệu cũ.
+ Tôi sẽ sử dụng dữ liệu hiện tại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่ ลบข้อมูลเก่าออก
+ ฉันจะใช้ข้อมูลปัจจุบัน</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLink2</t>
   </si>
   <si>
@@ -1010,6 +1360,26 @@
 并加载新登录账号以前的数据</t>
   </si>
   <si>
+    <t xml:space="preserve">[Ja] Alte Daten laden
+Alte Daten laden und verwenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, abandonner les données de jeu actuelles,
+et charger les données liées au compte nouvellement connecté.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya, muat data lama.
+ Saya akan menghapus data saat ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có, tải dữ liệu cũ.
+ Tôi sẽ mất dữ liệu hiện tại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ใช่ โหลดข้อมูลเก่า
+ ฉันจะละทิ้งข้อมูลปัจจุบัน</t>
+  </si>
+  <si>
     <t xml:space="preserve">AppUpdateTitle</t>
   </si>
   <si>
@@ -1047,6 +1417,21 @@
     <t xml:space="preserve">ES NECESARIO ACTUALIZAR.</t>
   </si>
   <si>
+    <t xml:space="preserve">UPDATE ERFORDERLICH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISE À JOUR REQUISE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPERLUKAN PEMBARUAN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YÊU CẦU MỘT BẢN CẬP NHẬT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">จำเป็นต้องอัปเดต</t>
+  </si>
+  <si>
     <t xml:space="preserve">NotNow</t>
   </si>
   <si>
@@ -1068,6 +1453,21 @@
     <t xml:space="preserve">下次</t>
   </si>
   <si>
+    <t xml:space="preserve">SPÄTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUS TARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ภายหลัง</t>
+  </si>
+  <si>
     <t xml:space="preserve">GoToUpdate</t>
   </si>
   <si>
@@ -1086,6 +1486,21 @@
     <t xml:space="preserve">ACTUALIZAR YA</t>
   </si>
   <si>
+    <t xml:space="preserve">JETZT UPDATEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METTRE À JOUR MAINTENANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERBARUI SEKARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CẬP NHẬT NGAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อัปเดตตอนนี้</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
@@ -1104,6 +1519,21 @@
     <t xml:space="preserve">SÍ</t>
   </si>
   <si>
+    <t xml:space="preserve">JA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ใช่</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
@@ -1119,6 +1549,21 @@
     <t xml:space="preserve">否</t>
   </si>
   <si>
+    <t xml:space="preserve">NEIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIDAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่</t>
+  </si>
+  <si>
     <t xml:space="preserve">CompleteDownloadFiles</t>
   </si>
   <si>
@@ -1156,6 +1601,21 @@
     <t xml:space="preserve">ACTUALIZACIÓN COMPLETA</t>
   </si>
   <si>
+    <t xml:space="preserve">UPDATE ABGESCHLOSSEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISE À JOUR TERMINÉE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMBARUAN SELESAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CẬP NHẬT HOÀN TẤT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อัปเดตเสร็จสมบูรณ์</t>
+  </si>
+  <si>
     <t xml:space="preserve">CheckDownloadFiles</t>
   </si>
   <si>
@@ -1196,6 +1656,21 @@
     <t xml:space="preserve">正在读取更新文件。</t>
   </si>
   <si>
+    <t xml:space="preserve">Update-Dateien werden überprüft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérification des fichiers à mettre à jour...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memeriksa file yang akan diperbarui.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang kiểm tra tệp được cập nhật.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กำลังตรวจสอบไฟล์ที่จะอัปเดต</t>
+  </si>
+  <si>
     <t xml:space="preserve">ErrorDownloadFiles</t>
   </si>
   <si>
@@ -1236,6 +1711,21 @@
     <t xml:space="preserve">发生错误，重新读取更新文件。</t>
   </si>
   <si>
+    <t xml:space="preserve">Es ist ein Fehler aufgetreten. Update-Dateien werden erneut überprüft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une erreur est survenue. Nouvelle vérification des fichiers à mettre à jour...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjadi kesalahan. Memeriksa file untuk diperbarui ulang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xảy ra lỗi. Đang kiểm tra tệp để cập nhật lại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกิดข้อผิดพลาด กำลังตรวจสอบไฟล์ที่จะอัปเดตอีกครั้ง</t>
+  </si>
+  <si>
     <t xml:space="preserve">Purchasing</t>
   </si>
   <si>
@@ -1295,6 +1785,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">KAUFEN...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACHAT EN COURS…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEDANG MEMBELI...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐANG MUA...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">กำลังซื้อ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Purchased</t>
   </si>
   <si>
@@ -1316,6 +1839,21 @@
     <t xml:space="preserve">购买成功</t>
   </si>
   <si>
+    <t xml:space="preserve">KAUF ERFOLGREICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACHAT RÉUSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMBELIAN SELESAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀN TẤT MUA HÀNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซื้อเสร็จสมบูรณ์</t>
+  </si>
+  <si>
     <t xml:space="preserve">FailedToPurchase</t>
   </si>
   <si>
@@ -1337,6 +1875,21 @@
     <t xml:space="preserve">购买失败</t>
   </si>
   <si>
+    <t xml:space="preserve">KAUF GESCHEITERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉCHEC DE L'ACHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMBELIAN GAGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUA HÀNG KHÔNG THÀNH CÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่สามารถซื้อได้</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancelled</t>
   </si>
   <si>
@@ -1358,6 +1911,21 @@
     <t xml:space="preserve">取消购买</t>
   </si>
   <si>
+    <t xml:space="preserve">KAUF STORNIEREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNULATION DE L'ACHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATALKAN PEMBELIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HỦY MUA HÀNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยกเลิกการซื้อ</t>
+  </si>
+  <si>
     <t xml:space="preserve">VerificationFailed</t>
   </si>
   <si>
@@ -1379,6 +1947,21 @@
     <t xml:space="preserve">收据验证失败</t>
   </si>
   <si>
+    <t xml:space="preserve">Quittung nicht bestätigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉCHEC DE VÉRIFICATION DE LA FACTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGAL MEMVERIFIKASI TANDA TERIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XÁC MINH BIÊN NHẬN KHÔNG THÀNH CÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่สามารถตรวจสอบใบเสร็จได้</t>
+  </si>
+  <si>
     <t xml:space="preserve">NameTag</t>
   </si>
   <si>
@@ -1419,6 +2002,39 @@
     <t xml:space="preserve">名称：</t>
   </si>
   <si>
+    <t xml:space="preserve">Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ชื่อ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">DescTag</t>
   </si>
   <si>
@@ -1459,6 +2075,36 @@
     <t xml:space="preserve">说明：</t>
   </si>
   <si>
+    <t xml:space="preserve">Beschreibung:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deskripsi :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">คำอธิบาย </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">PriceTag</t>
   </si>
   <si>
@@ -1499,6 +2145,39 @@
     <t xml:space="preserve">价格：</t>
   </si>
   <si>
+    <t xml:space="preserve">Preis:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ราคา </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">NetworkError</t>
   </si>
   <si>
@@ -1518,6 +2197,21 @@
   </si>
   <si>
     <t xml:space="preserve">服务器连接失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERBINDUNG ZUM SERVER FEHLGESCHLAGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échec de connexion au serveur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGAL TERHUBUNG KE SERVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KẾT NỐI VỚI MÁY CHỦ KHÔNG THÀNH CÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่สามารถเชื่อมต่อกับเซิร์ฟเวอร์ได้</t>
   </si>
   <si>
     <t xml:space="preserve">NetworkErrorMessage</t>
@@ -1586,6 +2280,26 @@
 请稍后再试。</t>
   </si>
   <si>
+    <t xml:space="preserve">Wir entschuldigen uns für die Unannehmlichkeiten.
+Bitte versuche es später noch einmal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous sommes désolé pour ce désagrément.
+Veuillez réessayer un peu plus tard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maaf atas ketidaknyamanannya.
+ Silakan coba lagi nanti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xin lỗi vì sự bất tiện.
+ Vui lòng thử lại sau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขออภัยในความไม่สะดวก
+ โปรดลองอีกครั้งในภายหลัง</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quit</t>
   </si>
   <si>
@@ -1607,6 +2321,21 @@
     <t xml:space="preserve">结束</t>
   </si>
   <si>
+    <t xml:space="preserve">BEENDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUITTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELUAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOÁT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ออก</t>
+  </si>
+  <si>
     <t xml:space="preserve">QuitConfirm</t>
   </si>
   <si>
@@ -1645,6 +2374,21 @@
   </si>
   <si>
     <t xml:space="preserve">确定要结束游戏吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möchtest du das Spiel beenden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quitter le jeu ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keluar dari game?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn có muốn thoát trò chơi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณต้องการออกจากเกมหรือไม่</t>
   </si>
   <si>
     <t xml:space="preserve">AccountLinkMsg2</t>
@@ -1910,6 +2654,101 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Möchtest du den Fortschritt des vorherigen Spiels mit dem Konto [{0}] verknüpfen, mit dem neuen Login, das aktuell für das Konto [{1}] geladen ist?
+(Dieser Vorgang kann nicht rückgängig gemacht werden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souhaitez-vous lier les données de jeu existantes du compte : [{0}], à la connexion effectuée avec le compte : [{1}] ?
+(Action irréversible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tautkan akun [{0}] dengan akun [{1}] saat ini? 
+ (Tindakan ini tidak dapat dibatalkan.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn có muốn liên kết tài khoản [{0}] và tài khoản [{1}] hiện tại?
+ (Thao tác này không thể hoàn tác.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">คุณต้องการเชื่อมโยงบัญชี </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{0}] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">กับบัญชี </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{1}] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ปัจจุบันหรือไม่
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">การดำเนินการนี้ไม่สามารถยกเลิกภายหลังได้</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLink3</t>
   </si>
   <si>
@@ -1970,6 +2809,21 @@
     <t xml:space="preserve">是，登录并连接账号。</t>
   </si>
   <si>
+    <t xml:space="preserve">Ja, ich möchte die Daten des vorherigen Spiels mit dem neuen Konto verknüpfen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, je souhaite lier les données existantes à la nouvelle connexion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya, masuk dan tautkan akun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có, đăng nhập và liên kết tài khoản.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ต้องการ เข้าสู่ระบบแล้วเชื่อมโยงบัญชี</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLink4</t>
   </si>
   <si>
@@ -2030,6 +2884,21 @@
     <t xml:space="preserve">否，取消登录。</t>
   </si>
   <si>
+    <t xml:space="preserve">Nein, ich möchte mich mit meinem alten Konto einloggen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non, je ne souhaite pas me connecter avec l'ancien compte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak, jangan masuk ke dalam game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không, không đăng nhập vào trò chơi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่ต้องการ ไม่ต้องลงชื่อเข้าสู่เกม</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountCannotLogin</t>
   </si>
   <si>
@@ -2070,32 +2939,27 @@
     <t xml:space="preserve">已连接其他游戏账号，无法登录。</t>
   </si>
   <si>
+    <t xml:space="preserve">Dieses Konto ist bereits mit bestehenden Spieldaten verknüpft. Einloggen nicht möglich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ces données de connexion sont déjà liées à des données existantes. Connexion impossible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akun ini telah ditautkan ke akun game lainnya. Tidak dapat masuk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài khoản này đã được liên kết với tài khoản trò chơi khác. Không thể đăng nhập.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บัญชีดังกล่าวเชื่อมโยงอยู่กับบัญชีเกมอื่นแล้ว ไม่สามารถเข้าสู่ระบบได้</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLogoutMsg</t>
   </si>
   <si>
-    <t xml:space="preserve">You tried to log into the game with an account that is already linked to a different game account. Do you want to log out from the current account and log in with a new account?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
+    <t xml:space="preserve">Do you want to log out from the current account and log in with a new account?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2118,16 +2982,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインしますか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已嘗試使用已連線其他遊戲的帳號登入，是否退出當前帳號並使用新帳號登入？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. ¿Deseas desconectarte de la cuenta actual y conectarte con una cuenta nueva?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已尝试使用正在连接其他游戏的账号登录，是否退出当前账号并使用新账号登录？</t>
+    <t xml:space="preserve">現在のアカウントからログアウトし、新しいアカウントでログインしますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否退出當前帳號並使用新帳號登入？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Deseas desconectarte de la cuenta actual y conectarte con una cuenta nueva?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否退出当前账号并使用新账号登录？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Möchtest du dich aus dem alten Konto ausloggen und dich mit einem neuen Konto einloggen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souhaitez-vous vous déconnecter de cet ancien compte pour vous connecter avec un nouveau ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apakah kamu ingin keluar dari akun terkini dan masuk dengan akun baru?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn có muốn đăng xuất khỏi tài khoản hiện tại và đăng nhập bằng tài khoản mới không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณต้องการออกจากบัญชีปัจจุบันแล้วเข้าสู่ระบบด้วยบัญชีใหม่หรือไม่</t>
   </si>
   <si>
     <t xml:space="preserve">AccountLogout1</t>
@@ -2190,32 +3069,27 @@
     <t xml:space="preserve">是，使用新账号登录。</t>
   </si>
   <si>
+    <t xml:space="preserve">Ja, ich möchte mich mit einem neuen Konto einloggen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, je souhaite me connecter avec un nouveau compte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya, saya ingin masuk dengan akun baru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có, tôi muốn đăng nhập bằng tài khoản mới.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ต้องการ ฉันต้องการเข้าสู่ระบบด้วยบัญชีใหม่</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLogoutMsg2</t>
   </si>
   <si>
-    <t xml:space="preserve">You tried to log into the game with an account that is already linked to a different game account. Logging out from the current account and logging in with a new account.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">이미 다른 게임 계정에 연결된 계정으로 로그인을 시도하셨습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
+    <t xml:space="preserve">Logging out from the current account and logging in with a new account.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2238,16 +3112,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">すでに他のゲームアカウントと連携しているアカウントでログインしようとしました。現在のアカウントからログアウトし、新しいアカウントでログインします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已嘗試使用已連線其他遊戲的帳號登入，即將退出當前帳號並使用新帳號登入。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intentaste conectarte al juego con una cuenta que ya está vinculada a otra cuenta de juego. Desconéctate de la cuenta actual y conéctate con una cuenta nueva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已尝试使用正在连接其他游戏的账号登录，即将退出当前账号并使用新账号登录。</t>
+    <t xml:space="preserve">現在のアカウントからログアウトし、新しいアカウントでログインします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">即將退出當前帳號並使用新帳號登入。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconéctate de la cuenta actual y conéctate con una cuenta nueva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">即将退出当前账号并使用新账号登录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du wirst aus dem bereits bestehenden Spiel ausgeloggt und mit einem neuen Konto eingeloggt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce compte va être déconnecté et vous pourrez vous connecter avec un nouveau compte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keluar dari akun terkini dan masuk dengan akun baru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng xuất khỏi tài khoản hiện tại và đăng nhập bằng tài khoản mới.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กำลังออกจากบัญชีปัจจุบันแล้วเข้าสู่ระบบด้วยบัญชีใหม่</t>
   </si>
   <si>
     <t xml:space="preserve">EULADetail</t>
@@ -2271,6 +3160,18 @@
     <t xml:space="preserve">详细查看</t>
   </si>
   <si>
+    <t xml:space="preserve">Détails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rincian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รายละเอียด</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountLoginIOSSetting</t>
   </si>
   <si>
@@ -2498,6 +3399,86 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Bitte melde dich auf deinem iOS-Gerät bei deinem Game-Center-Konto über [Einstellungen] &gt; [Game Center] an und versuche es erneut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez vous connecter à votre compte Game Center via [Réglages] &gt; [Game Center] sur votre appareil iOS avant de réessayer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masuk ke akun GameCenter-mu di "Pengaturan&gt; GameCenter" lalu coba lagi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập vào tài khoản Trung tâm Trò chơi tại "Cài đặt&gt; Trung tâm Trò chơi" và thử lại.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">เข้าสู่บัญชี </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GameCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ของคุณที่ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">การตั้งค่า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt; GameCenter" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">แล้วลองอีกครั้ง</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">EmailContent1</t>
   </si>
   <si>
@@ -2517,6 +3498,21 @@
   </si>
   <si>
     <t xml:space="preserve">请在下方输入要咨询的内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte gib deine Anfrage unter dieser Zeile ein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisissez ci-dessous votre requête.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silakan masukkan pertanyaanmu di bawah garis ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng nhập yêu cầu của bạn dưới dòng này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โปรดพิมพ์ข้อร้องเรียนของคุณใต้บรรทัดนี้</t>
   </si>
   <si>
     <t xml:space="preserve">ServerMaintenance</t>
@@ -2585,6 +3581,26 @@
 很抱歉为您带来不便。</t>
   </si>
   <si>
+    <t xml:space="preserve">Der Spielservice befindet sich unter Wartung.
+Wir entschuldigen uns für die Unannehmlichkeiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce service est en cours de maintenance.
+Veuillez nous excuser pour la gêne occasionnée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layanan ini sedang dalam perbaikan.
+ Mohon maaf atas ketidaknyamanannya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dịch vụ này đang được bảo trì.
+ Chúng tôi xin lỗi vì sự bất tiện.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บริการนี้อยู่ระหว่างการปิดปรับปรุง
+ ขออภัยในความไม่สะดวก</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaintenanceNetworkError</t>
   </si>
   <si>
@@ -2604,6 +3620,21 @@
   </si>
   <si>
     <t xml:space="preserve">网络不稳定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instabile Netzwerkverbindung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau instable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sambungan Jaringan Tidak Stabil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết nối mạng không ổn định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเชื่อมต่อเครือข่ายไม่เสถียร</t>
   </si>
   <si>
     <t xml:space="preserve">MaintenanceNetworkErrorMessage</t>
@@ -2671,6 +3702,26 @@
     <t xml:space="preserve">网络不稳定，尝试重新登录？</t>
   </si>
   <si>
+    <t xml:space="preserve">Das Netzwerk ist instabil.
+Möchtest du versuchen, dich erneut zu verbinden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La connexion au réseau est instable. 
+Tenter une reconnexion ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sambungan jaringan tidak stabil.
+ Coba sambungkan ulang?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết nối mạng không ổn định.
+ Bạn có muốn thử kết nối lại?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเชื่อมต่อเครือข่ายมีความไม่เสถียร
+ คุณต้องการลองเชื่อมต่อใหม่อีกครั้งหรือไม่</t>
+  </si>
+  <si>
     <t xml:space="preserve">ServerMaintenanceTitle</t>
   </si>
   <si>
@@ -2692,6 +3743,21 @@
     <t xml:space="preserve">服务器维护中</t>
   </si>
   <si>
+    <t xml:space="preserve">Serverwartung im Gange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serveur en maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam Perbaikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang bảo trì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อยู่ระหว่างปิดปรับปรุง</t>
+  </si>
+  <si>
     <t xml:space="preserve">Close</t>
   </si>
   <si>
@@ -2708,6 +3774,21 @@
   </si>
   <si>
     <t xml:space="preserve">关闭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schließen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đóng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปิด</t>
   </si>
   <si>
     <t xml:space="preserve">OBBFileError</t>
@@ -2847,6 +3928,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Keine OBB-Datei verhanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier OBB manquant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File OBB Tidak Ditemukan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiếu Tệp OBB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ไม่พบไฟล์ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OBB</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">OBBFileErrorMessage</t>
   </si>
   <si>
@@ -3174,6 +4288,50 @@
       </rPr>
       <t xml:space="preserve">文件，或已损坏。
 请删除游戏后重新安装。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Es konnte keine gültige OBB-Datei gefunden werden oder die Datei ist beschädigt.
+Bitte lösche die App und installiere das Spiel neu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier OBB introuvable ou endommagé.
+Veuillez supprimer l'application et procéder à sa réinstallation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak dapat menemukan file OBB yang valid atau file tersebut rusak. Hapus aplikasi dan instal ulang game-nya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không thể tìm thấy tệp OBB hợp lệ hoặc tệp có thể bị hỏng. Vui lòng xóa ứng dụng và cài đặt lại trò chơi.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ไม่พบไฟล์ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OBB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">หรือไฟล์ดังกล่าวอาจเสียหาย โปรดลบแอปพลิเคชัน แล้วติดตั้งเกมใหม่อีกครั้ง</t>
     </r>
   </si>
   <si>
@@ -3660,6 +4818,106 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OBB-Datei wird erneut heruntergeladen.
+&lt;color=#FF8080FF&gt;WiFi-Verbindung empfohlen
+&lt;/color&gt;(Dateigröße: {0} MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retéléchargement du fichier OBB pour le lancement du jeu.
+&lt;color=#FF8080FF&gt;Connexion Wi-Fi recommandée&lt;/color&gt;
+(Taille du fichier : {0} MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengunduh ulang File OBB untuk melanjutkan permainan.
+ &lt;color=#FF8080FF&gt;Disarankan menggunakan Sambungan WIFI&lt;/color&gt;
+ (Ukuran File : {0} MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tải xuống lại Tệp OBB để tiếp tục trò chơi.
+ &lt;color=#FF8080FF&gt;Kết nối WIFI được khuyên dùng&lt;/color&gt;
+ (Kích cỡ tệp: {0} MB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ดาวน์โหลดไฟล์ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OBB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">อีกครั้งเพื่อเล่นเกม
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;color=#FF8080FF&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">แนะนำให้เชื่อมต่อ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WIFI&lt;/color&gt;
+ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ขนาดไฟล์</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: {0} MB)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">AppPermissionsTitle1</t>
   </si>
   <si>
@@ -3679,6 +4937,21 @@
   </si>
   <si>
     <t xml:space="preserve">为保障流畅的游戏环境所需访问权限介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Berechtigungen zur Nutzung erteilen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorisations requises pour l'utilisation de l'application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izin Akses Penggunaan Aplikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quyền Truy nhập để Sử dụng Ứng dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สิทธิ์การเข้าถึงสำหรับการใช้งานแอป</t>
   </si>
   <si>
     <t xml:space="preserve">AppPermissionsInfo1</t>
@@ -4189,6 +5462,133 @@
 将无法继续，请允许访问权限。</t>
   </si>
   <si>
+    <t xml:space="preserve">[Zugriff auf Ordner mit Media-, Foto- und anderen Dateien]
+** ACHTUNG **
+Das Spiel greift NICHT auf deine privaten Foto- und Mediadateien oder andere Dateien zu.
+Mit der Berechtigung kann die App Spieldaten auf deinem externen Speichermedium speichern, auf dem sich private Dateien befinden könnten, die nicht mit dem Spiel in Verbindung stehen.
+Die App kann jedoch nicht auf solche auf einem externen Speichermedium gesicherte Daten zugreifen. Mit der Berechtigung kann die App lediglich Spieldaten in den gleichen Ordnern speichern.
+Mit der Berechtigung kann die App das Spiel auf einem externen Speichermedium installieren, sofern nicht genug Platz im Gerätespeicher ist.
+Bitte sei versichert, dass diese Zugriffsberechtigung nicht für andere Zwecke als die oben aufgeführten genutzt wird.
+Ohne die Berechtigung wird die Spielsitzung beendet.
+Wenn du weiterspielen möchtest, erteile der App bitte die oben aufgeführten Berechtigungen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Accès à des dossiers pouvant contenir des enregistrements, des photos et d'autres fichiers]
+** Rassurez-vous **
+Le jeu n'accède PAS à vos photos, enregistrements et autres fichiers personnels.
+L'autorisation d'accès permet simplement à l'application d'enregistrer les données de jeu sur le stockage externe qui peut contenir des fichiers personnels sans rapport avec le jeu.
+Cela ne signifie pas que l'application peut accéder aux fichiers enregistrés sur le stockage externe. L'autorisation permet simplement à l'application d'enregistrer des données dans les mêmes dossiers.
+Autoriser cet accès permet à l'application d'installer le jeu sur le stockage externe s'il n'y a pas assez de place sur le stockage interne.
+Cette autorisation d'accès ne sera pas utilisée à d'autres fins que celles mentionnées.
+Le refus de cet accès entraîne l'arrêt immédiat du jeu.
+Si vous souhaitez installer le jeu, veuillez autoriser les accès requis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Foto, media, dan file]
+ Izin akses ini diperlukan dan memungkinkan kami untuk menyimpan aplikasi pada memori eksternalmu. 
+ Dengan memberikan izin, kami akan dapat menginstal game pada penyimpanan eksternal 
+ jika kamu tidak memiliki cukup ruang pada penyimpanan internal. 
+ (Kami tidak akan mengakses foto dan file lainnya milikmu)
+ Izin akses ini tidak akan digunakan untuk tujuan apa pun selain yang dinyatakan di atas. 
+ Menolak izin akses akan menghentikan progres permainan. 
+ Berikan izin akses yang diperlukan agar tetap dapat menggunakan aplikasi ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ảnh, phương tiện và tệp]
+ Quyền truy nhập này là cần thiết và cho phép chúng tôi lưu trữ ứng dụng trên bộ nhớ ngoài. 
+ Cấp quyền truy nhập sẽ cho phép chúng tôi cài đặt trò chơi trên bộ nhớ ngoài 
+ nếu bạn không có đủ dung lượng trên bộ nhớ trong của mình. 
+ (Chúng tôi sẽ không truy nhập vào ảnh và các tệp khác của bạn)
+ Không sử dụng quyền truy nhập cho bất kỳ mục đích nào khác ngoài mục đích nêu trên. 
+ Từ chối quyền truy nhập sẽ làm dừng bất kỳ tiến trình nào. 
+ Vui lòng cấp cho chúng tôi quyền truy nhập cần thiết để sử dụng ứng dụng.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">รูปถ่าย สื่อ และไฟล์</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">จำเป็นต้องมีสิทธิ์การเข้าถึงนี้และอนุญาตให้เราจัดเก็บแอปในหน่วยความจำภายนอกของคุณ 
+ การให้สิทธิ์ดังกล่าวจะช่วยให้เราสามารถติดตั้งเกมในที่เก็บข้อมูลภายนอกได้ 
+ หากคุณไม่มีที่ว่างเพียงพอในที่เก็บข้อมูลภายในของคุณ 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">เราจะไม่สามารถเข้าถึงรูปถ่ายและไฟล์อื่นๆ ของคุณได้</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">จะไม่มีการใช้สิทธิ์การเข้าถึงนี้เพื่อวัตถุประสงค์อื่นใดนอกเหนือไปจากวัตถุประสงค์ตามที่ระบุไว้ข้างต้น 
+ การปฏิเสธสิทธิ์การเข้าถึงจะทำให้ความคืบหน้าใดๆ หลังจากนี้หยุดลงทั้งหมด 
+ โปรดให้สิทธิ์การเข้าถึงที่จำเป็นนี้แก่เราเพื่อให้สามารถใช้งานแอปได้</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">AppPermissionsTitle2</t>
   </si>
   <si>
@@ -4208,6 +5608,21 @@
   </si>
   <si>
     <t xml:space="preserve">为保障流畅的游戏环境所需访问权限重新设定相关介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Berechtigungen zur Nutzung erneut erteilen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorisation supplémentaire requise pour l'utilisation de l'application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mereset Izin Akses Penggunaan Aplikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt lại Quyền Truy nhập để Sử dụng Ứng dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การรีเซ็ตสิทธิ์การเข้าถึงสำหรับการใช้งานแอป</t>
   </si>
   <si>
     <t xml:space="preserve">AppPermissionsInfo2</t>
@@ -4237,6 +5652,30 @@
 返回设置页面。点击允许访问“储存空间”权限</t>
   </si>
   <si>
+    <t xml:space="preserve">Diese Berechtigung ist für die Nutzung des Spiels erforderlich
+und erlaubt der App, Spieldaten auf deinem externen Speichermedium zu speichern.
+Du wirst zu den App-Einstellungen weitergeleitet.
+Bitte erlaube der App Zugriff auf dein Speichermedium, um das Spiel störungsfrei spielen zu können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette autorisation est nécessaire à la poursuite du jeu
+et permet à l'application d'enregistrer des données de jeu sur le stockage externe de l'appareil.
+L'écran de réglages des applications va s'afficher.
+Veuillez autoriser l'accès au stockage afin de continuer à jouer sans problème.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ini merupakan keharusan agar dapat menggunakan game ini.
+ Kamu akan diarahkan ke layar pengaturan aplikasi. Berikan izin penggunaan ruang penyimpanan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đây là quyền bắt buộc để sử dụng trò chơi.
+ Bạn sẽ được chuyển đến màn hình cài đặt ứng dụng. Vui lòng cho phép sử dụng dung lượng lưu trữ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นี่เป็นสิทธิ์ที่จำเป็นสำหรับการเข้าใช้งานแอปเกม
+ จะมีการย้ายคุณไปยังหน้าจอการตั้งค่าแอป โปรดอนุญาตการใช้งานพื้นที่จัดเก็บข้อมูล</t>
+  </si>
+  <si>
     <t xml:space="preserve">LoginErrorMessage2</t>
   </si>
   <si>
@@ -4248,6 +5687,7 @@
         <sz val="13"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">로그인 과정에서 일시적인 오류가 발생하였습니다</t>
     </r>
@@ -4265,6 +5705,7 @@
         <sz val="13"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">잠시 후 다시 시도해주세요</t>
     </r>
@@ -4291,6 +5732,21 @@
     <t xml:space="preserve">登录过程中发生异常，请稍后再试。</t>
   </si>
   <si>
+    <t xml:space="preserve">Beim Anmelden ist ein temporärer Fehler aufgetreten. Bitte versuche es später erneut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une erreur temporaire est survenue dans la procédure de connexion. Veuillez Réessayer un peu plus tard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjadi kesalahan sementara saat masuk. Coba lagi nanti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xảy ra lỗi tạm thời khi đăng nhập. Vui lòng thử lại sau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกิดข้อผิดพลาดชั่วคราวขณะเข้าสู่ระบบ โปรดลองอีกครั้งในภายหลัง</t>
+  </si>
+  <si>
     <t xml:space="preserve">LoginErrorTitle</t>
   </si>
   <si>
@@ -4312,13 +5768,45 @@
     <t xml:space="preserve">登录</t>
   </si>
   <si>
+    <t xml:space="preserve">LOGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE CONNECTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐĂNG NHẬP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เข้าสู่ระบบ</t>
+  </si>
+  <si>
     <t xml:space="preserve">LoginErrorMessage1</t>
   </si>
   <si>
     <t xml:space="preserve">Failed to log in.</t>
   </si>
   <si>
-    <t xml:space="preserve">로그인에 실패했습니다.</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">로그인에 실패했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ログインに失敗しました。</t>
@@ -4331,6 +5819,713 @@
   </si>
   <si>
     <t xml:space="preserve">登录失败。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmeldung fehlgeschlagen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échec de connexion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagal masuk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่สามารถเข้าสู่ระบบได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_IlligalProgramUsage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal Program Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불법 프로그램 이용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">違法ソフト利用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用不法程式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar programas ilegales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用非法程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegale Programmverwendung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation de programme non-autorisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penggunaan Program Ilegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng Chương trình Trái phép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การใช้งานโปรแกรมที่ผิดกฎหมาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_GameAbuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Abuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어뷰징</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アビュージング</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濫用遊戲系統</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abusar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滥用游戏系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missbrauchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penyalahgunaan Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lạm dụng Trò chơi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การใช้เกมในทางที่ผิด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_ExploitingGameBugsAndError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploiting Game Bugs &amp; Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시스템 오류 또는 버그 악용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システムエラーまたはバグの悪用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濫用系統錯誤或程式漏洞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abuso de errores del sistema</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">滥用系统漏洞及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BUG</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemfehler oder Bugmissbrauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abus d'erreur système ou de bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengeksploitasi Bug &amp; Kesalahan Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lợi dụng Sự cố &amp; Lỗi Trò chơi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การแสวงหาประโยชน์จากบักและข้อผิดพลาดของเกม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_RudeOrOffensiveBehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rude / Offensive Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비매너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マナー違反</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不雅行為</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comportamiento inapropiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侮辱性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlechtes Benehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossiereté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perilaku Kasar / Menyinggung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hành vi Thô lỗ / Công kích</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">พฤติกรรมหยาบคาย </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ก้าวร้าว</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_InvalidPurchases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Purchases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비정상 결제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不正な支払い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非正常付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago inusual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非法付费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormale Transaktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Règlement Irrégulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembelian Tidak Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mua Không hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การซื้อไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_InvalidSignUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Sign-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비정상 가입</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不正登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非正常註冊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suscripción inusual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非法注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormale Anmeldung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscription Irrégulière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendaftaran Tidak Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng ký Không hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การลงทะเบียนใช้งานไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_InappropriateBehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inappropriate Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부적절한 행동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不適切な行動</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不當的行為</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不当行为</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unangemessene Aktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Inconvenante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perilaku yang Tidak Pantas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hành vi Không thích hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">พฤติกรรมไม่เหมาะสม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_PermanentBan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent Ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영구정지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永久停止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永久封停</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricción permanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永久停封</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauerhafte Sperre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bannissement Permanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larangan Permanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấm Vĩnh viễn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระงับถาวร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giờ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ชม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_Minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phút</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นาที</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_LoginRestricted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN RESTRICTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">접속제한</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接続制限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">限制訪問</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricciones de conexión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">限制登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN-BESCHRÄNKUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICTION DE CONNEXION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DILARANG MASUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐĂNG NHẬP BỊ HẠN CHẾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเข้าสู่ระบบถูกจำกัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REASON:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제재 사유</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペナルティ理由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">限制理由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razón de restricción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRÜNDE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAISON :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALASAN:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÝ DO:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">เหตุผล</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICTION PERIOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제재 기간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペナルティ期間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">限制期間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Días de restricción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">限制期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESCHRÄNKUNGSZEIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÉRIODE DE RESTRICTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERIODE LARANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THỜI GIAN HẠN CHẾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระยะเวลาในการจำกัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_Inquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INQUIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お問い合わせ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">諮詢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contáctanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANFRAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUÊTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERTANYAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YÊU CẦU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้อร้องเรียน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTRICT_GameWillClose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game will close due to operational policy.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">운영정책에 의하여 게임이 종료됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">運営政策に基づき、ゲームが終了します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根據運營政策，遊戲結束。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El juego terminará según la regla de operación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因运营政策，结束游戏。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spielsitzung gemäß der Nutzungsbedingungen sowie den Datenrichtlinien beendet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session de jeu interrompue en accord avec les Conditions d'utilisation et la Politique de confidentialité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game akan ditutup karena kebijakan operasional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trò chơi sẽ đóng do chính sách hoạt động.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกมจะปิดตามนโยบายการดำเนินการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginErrorMessage3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected through another device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다른 기기에서 접속했습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すでに他の端末からアクセスしています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已在其他設備登入。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya se ha conectado a otro dispositivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已在其他设备登录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bereits mit einem anderen Gerät verbunden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déjà connecté sur un autre appareil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terhubung melalui perangkat lainnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã kết nối thông qua một thiết bị khác.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เชื่อมต่ออยู่กับอุปกรณ์เครื่องอื่น</t>
   </si>
 </sst>
 </file>
@@ -4340,7 +6535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4364,11 +6559,32 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4471,14 +6687,10 @@
       <sz val="13"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4493,17 +6705,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -4532,25 +6757,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4561,11 +6814,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4573,31 +6826,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4605,19 +6858,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4630,6 +6879,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4638,22 +6947,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="57.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="58.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4678,1365 +6992,2948 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+    <row r="3" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
+    <row r="4" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
+      <c r="G11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
+    <row r="12" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
+    <row r="13" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
+    <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
+    <row r="15" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
+    <row r="16" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>68</v>
+    <row r="17" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>75</v>
+    <row r="18" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>82</v>
+    <row r="19" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="193.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>89</v>
+    <row r="20" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>96</v>
+    <row r="21" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>101</v>
+    <row r="22" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>109</v>
+    <row r="23" customFormat="false" ht="97.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>114</v>
+    <row r="24" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>120</v>
+    <row r="25" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>126</v>
+    <row r="26" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>131</v>
+    <row r="27" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>179</v>
+        <v>302</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>181</v>
+        <v>306</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>188</v>
+        <v>318</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>193</v>
+        <v>326</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>195</v>
+        <v>330</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>200</v>
+        <v>337</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>202</v>
+        <v>341</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="77.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>207</v>
+        <v>349</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>209</v>
+        <v>353</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="161.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="97.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>216</v>
+        <v>360</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>221</v>
+        <v>373</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>223</v>
+        <v>377</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>383</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="49.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>228</v>
+        <v>385</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>230</v>
+        <v>389</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="177.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>237</v>
+        <v>396</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>242</v>
+        <v>409</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>244</v>
+        <v>413</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>245</v>
+        <v>420</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>249</v>
+        <v>421</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>251</v>
+        <v>425</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="113.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>256</v>
+        <v>433</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>258</v>
+        <v>437</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>443</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="113.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>259</v>
+        <v>444</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>263</v>
+        <v>445</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>265</v>
+        <v>449</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>266</v>
+        <v>456</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>270</v>
+        <v>457</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>272</v>
+        <v>461</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="97.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>273</v>
+        <v>468</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>277</v>
+        <v>469</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>279</v>
+        <v>473</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>479</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>284</v>
+        <v>481</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>286</v>
+        <v>485</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="115.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>287</v>
+        <v>491</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>289</v>
+        <v>493</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>291</v>
+        <v>494</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>293</v>
+        <v>496</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="77.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>294</v>
+        <v>503</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>298</v>
+        <v>504</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>300</v>
+        <v>508</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>307</v>
+        <v>515</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>526</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="49.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>308</v>
+        <v>527</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>312</v>
+        <v>528</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>314</v>
+        <v>532</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="97.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="129.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>321</v>
+        <v>539</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>322</v>
+        <v>551</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>326</v>
+        <v>552</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>328</v>
+        <v>556</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>334</v>
+    <row r="50" s="12" customFormat="true" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>341</v>
+      <c r="A51" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>585</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="187.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>348</v>
+    <row r="52" customFormat="false" ht="145.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>597</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="289.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>355</v>
+    <row r="53" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>609</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>356</v>
+    <row r="54" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>610</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>360</v>
+        <v>611</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>362</v>
+        <v>615</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>621</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="774" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>369</v>
+    <row r="55" customFormat="false" ht="875.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>370</v>
+    <row r="56" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>374</v>
+        <v>635</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>376</v>
+        <v>639</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>383</v>
+    <row r="57" customFormat="false" ht="222" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>657</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="113.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>390</v>
+        <v>658</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>669</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>391</v>
+        <v>670</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>397</v>
+        <v>671</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>681</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="49.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>404</v>
+        <v>682</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>693</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="65.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="49.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>890</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
